--- a/channels.xlsx
+++ b/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Eshwar Reddy\Desktop\TVapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA36619-5073-45A5-A2A2-65462EFAA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38520D2-0843-47D5-B38A-F9FC9ED2EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{992D5F35-52F0-4162-A3CE-20905C51C6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Channel_name</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAKgAtAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABwgBBgIEBQP/xABCEAABAwMCAwMHCgQEBwAAAAABAAIDBAURBhIHITETcYEUIjJBUWGCNjdCcnSRkqGxshVzdbMkY8HRCBYjM0NGYv/EABkBAQADAQEAAAAAAAAAAAAAAAABAwQFAv/EAB4RAQACAQUBAQAAAAAAAAAAAAABAhEDBBITITEy/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQcXepRZo/XTrpxQvNA6X/AAVSOyog7oHQ5zj6w3u8Atu4j306f0fcKyNxbUPZ2NOR1Ej+QI7sl3gq1W6Stsk9svFPEWhkxkpnHpIY3Dc0e7ng95QW7BUc8a9UVVistJSWyofT1tbPylYcFsbMF2D3lg7iVvdtrYblb6eupHF8FRG2WN3TLSMj9f1VeeJNdNq3iK+hoXBzWSMt9MQeWQ7Dj+Mu5+xoQSnwdddq3TD7ne7hU1clZKTD2zydsTfNBHsy4OPdhR1ozVWoa3iLQ0VVeayWkkrpWOhfJlu0B+B+Sni0UENrtlLb6UYhpomxM7mjA/RVu0F86Nu/qMv6PQWL1DI+HT9ylieY5GUkrmOb1BDCQoc4O6nvl21iKa5XWrqoPI5H9nNJkbgW4P5qYdT/ACau/wBim/Y5QTwJ+XY+wzfuYgsSMepYeSGnAJ5HouQXGT0D3IK+cMdWahuOubRR115rKimldIHxSSZa7ETyPzAVg2+vHtVYuEPziWL60v8AZkVnggFeRqG/UGn6A1dfJtHRjBzc8+wBerIQBzxjBzlV21tfZdRakkc1xMDSY4B6gwevx6leL34w1bTb91/Z8j62Wq19qC9zvFtcy3Urer2jc7uLnDr7gAvi3Ud7ZKBHc6nAAO5793Mj18sZ9w8Rjp1YIWQ08UNIx/mkZOHYdjPnADkeeenMHHsX0qYPJrf2xl3Hzsb+fX1n245ePu5HPyn7l1urT/NKtltPEiOlljp73LG7OB2jR54HtcG8vuwPYSpGpp4qinbNDI18T25a4HkQqnVj3CoLzIS8u3OcTzz6/wA8lTBwU1DJUMms87twa3tYc/R5+cB7uYI8VbS+WPd7Sta86NVr9V6h0jxEdS3G71k9BTVY3xTSZa6nf0OPcwj4grARODmgtIIwMEdCoX4/2TEluv0LeTgaSbly9bmH83j7lu3CO+fxvRVIZHEz0R8klyeZ2AbSfeWFvjlXOW9vWV5Zp/TVwursb6eEmIH6Uh81g8XEDxWu8Gb+696OiiqZC+roH+TyFx5uaObHH4SB8JWqf8QV9DWW6xMdgEmrqMHBAGWxj79x+ELX+ENzn07ruS0V7TAK3NJNG7lsmbksz787m/EEFh0XDr0APeiCDOOt9FyuNps9Ce1ibE2q2tPKV0nJg/CD+Nezr/RLaLhXQRU7QauyME0jm9Xbv+94ZO74VpnCKzyag1rBUVRM0FsjbK5zuhLAGQt7hgEfUVip4Y6mGSCdgdHI0se09HAjmgh3h1rUWvhpemyvBnszSaff9ISZ7MfjJHdheLwMsrrhqme6z73st0e7c4elM/kOfr80PPiFpeoLfU6cu91skkzhGyXY7P8A5WAh8ZPhg+KsBwgsn8F0XSOkaRUV3+Llz184DaPBgb45QboFWTQXzo27+oy/o9Wc9irHoL50bd/UZf0egsTqf5NXf7FN+xygngT8ux9hm/cxTtqf5NXf7FN+xygngT8ux9hm/cxQLErEnoHuWViT0D3KRWLhD84li+tL/ZkVngqw8IfnEsX1pf7Mis8EHSvRcLTWmP0+wft79pwq2UDTFVT1TjhzXbGnnyPUnkD0GPUrPSta9ha4ZBGMKverrLLaLvPbWtAie8mNzvpMcSQeh6YI+9VasZw37LUisWq+FJVspWmepDduzcWtkDXA+raWgZP+pb05rzbnqB9QzacYAwA3oB7Auhf69wijiBee1Pav3OySB0z3Eub3NC8EzHHNVYdCmrEPvNNudn2rfuCj3v1hTtZ0EUjnd20j9SFGm8k8s59ynXgRpqWlpZ7/AFcRYalnY0od1Mecud3EgY+rnoQrKVxLLuNfNJhIGuLI3UWlbja8f9WWImH+Y3zmeG4DPuUOcCb06g1PNa6glsdwi80O5Yljycfh3/hap/Pq/NVp4l2ybTGvaqWic6FlQ7yune0+jvzuGfr7uXsIVrlO7aWHX/Ft1SQX0YqDUH2GniIDB3OIYPjK7nG20S2jVtNfKFzovLAJA8D0J4sc+/GwjuK2ngJYfJLFVXqZgEldJ2cZ/wAqMkZ8XbvABbLxVsJv2ja2KFhdVUw8pgwOe5oJIHvLdw7yFI79n1VarhZrfcKmpgp3VdO2bsnO5tzyI8HBw8EVWXTyyRQsMh7OJpbG0v5NaXF2B7suJ8SsoLEcF9OSWLSpqKyExVtfKZZWuHnNaOTGnwy74lvzllEEV8T9DG/6ssFXE0mKqlFNXOafoNy8H3eaJBn27VKMbQxoa1oaAMAAYA7lzRBg9RyVfdHaT1DR8RKGuq7PVxUjK6R7pns5bSH4P5qwaIPN1DE+aw3KKFhklkpJWMa3qSWkDCrjbNLa6tNR5RbbTdKafZs7SFu12PWM+AVoEQVzMXFXny1Bk8/TP+6lPhUzUQ09WDVHlvlZq3dn5W4l3Z7GYxn1Z3LeUQVbt+ktaW6oiq6Cy3OmqI87JYm4czIIOD3EjxXsdlxV3f8AsOf5jsfqrGIgjvhC3VDae5/81/xDfvj7Dy1xPLDs7c+GfBbTqXT1Jf6PsqoEPaHdnI30mEjHJe2sKJ9TEzHsK86w4XaljrXS0FM2vpwDsdC8B2C4nm12Dnn6s961qn4d6xqH7I7DVNJPPtNrAPvICtWsqOMLe+2EK6L4LGCeOs1XNHJs85tHASWk/wD271j3D78KZoI2QxtijYGMY0Na1rQAAOgwFzKyvWFU2mZ9YKjfjNpWe/2221NvZurYKpsI9myUhhJ7nbPDKklEQ6Vmt0NptdLbqYYgpYWxR564aMc123cx6s+9ckQVh1roi8W7VFwp7TbJZaHtS+BzByDXecG/Dnb4IrPIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//Z</t>
+  </si>
+  <si>
+    <t>Sky sports</t>
+  </si>
+  <si>
+    <t>https://off1.dunyapurkaraja.com:1686/hls/skyscric.m3u8?md5=Rhh8Dbao2x6S6K9HctQhLg&amp;expires=1742190368</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIPERUQERISFRUXGBUaFhcYFxgXFRcYFRcXGhgXFxgYHSggGRslHhUXITIhJykrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLy0tLS8tLS8tLS0tLy0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEEBQcIAgP/xABIEAABAwIDBAcFBAcGBAcAAAABAAIDBBEFEiEGMUFRBxMiYXGBkRQyQlJygpKhsRUjM2KissEIQ1Nzk8IWg9HwFyREY7PT4f/EABsBAQACAwEBAAAAAAAAAAAAAAAEBQECAwYH/8QAOhEAAgECAwUFBwQABQUAAAAAAAECAxEEEjEFEyFRkUFSYXGhIjKBscHR8AYUQuEVIzNy8SRDYoKi/9oADAMBAAIRAxEAPwDeKAIAgCAIAgCAICjjYXO5ARHHOknDaS7TN1zx8EI6w94zXDAe4uBUulga1Tst5/lznKrGOrILi3TVM64paWNg4OlcXk+LGZQD9oqdT2XH+cun59DhLFLsRFq/pIxSYm9UWA/DGxjAPAhub8VKjgaEf438zk8RNmDmx6rf79XVO+qaQ/m5d1RprSK6I03s+ZYvlc73nOPiSfzXRJLQ0bb1DJC3cSPA2SyYTa0LyHGqqP3KqpZbdlmkb+Tlo6VN6xXRGyqzXaZmh6QsUhtlrJHAcJAyS/iXtLvxuuMsFQl/H6G6xE0SjC+mipZpUU0MovvjLonW884J9FFnsuD9yTXr9jrHFc0TjBOlPDqmzXyOp3HhMA1v+oCWAeJCg1MBWhor+X21O8a0JE0hla9oc1wc06ggggjmCN6htNcGdT2sAIAgCAIAgCAIAgCAIAgCAIAgPL3hoJJAAFyToABvJKA1xtZ0uU1PeOjaKmT572gafqGsn2dD8ysaGzpz4z4L1/r84HCpXjHQ1JtFtbWYgT7TM4s/wm9mIcuwNHW5uue9W1LD06XuL49pEnWlIwi7HIIAgCAIAgCAIAgCAyeBbQ1VA7NSzPj1uWg3jcf3mG7SdLXtdc6tGFVWmrnSNWUdDa2ynTDHIRHXxiJ27rYwTEfqZq5niMw8FVV9mtcabv4dpLhiE+DNo0tSyZjZI3texwu1zSHNcOYI0IVY04uzJB9VgBAEAQBAEAQBAEAQBAEBgtq9q6bDI+snd2jfJG3WSQj5RwHNxsBca6hdqGHnWdo9TWU1FXZoTbHbmqxQlsh6uC/ZgYezpuLzoZDu36aaAK9w+FhR04vn+aEGpWcuHYRhSTiEAQBAEAQBAEAQBAEAQBAEBnNltrKrDH5qd/YJu+J2sT/FvA/vCx0G8aLjXw8KytJfHtOlOq4G+tituabFW2YernAu+Fx7Q5uYfjb3jUaXAuFRYjCzovjxXMnQqRnoSlRjoEAQBAEAQBAEAQBAQrpC2/iwtvVR5ZKpw7LPhYDufLbhybvPcNRMwuEdZ3fCP5ocqlRQRz9ieJS1Urp55HSSO3ud+AAGgA4AaBXsIRgssVZECU3J3ZarY1CAIAgCAIDLYNs1WVoJpqaSQDQuADWX5Z3ENv3XXKpXp0/edjpGlKWh5x3Z+qoHNbVQmIvBLQXMdcNtexY4jiFmnWhU4wdzE6coamLXQ0CAIAgCAIAgCA+tNUPie2SNzmPabtc02c0jiCNyw0pKzMqTTujenRt0kNrstLVlrKnc1+gZPbkNzZObdx3jkKXF4Ld+3DT5f0TqVXOrPU2Oq87hAEAQBAEAQBAQrpJ25bhcXVx5XVUg7DTqGN3da8crg2HEg8AbS8JhXWd37q/LHOpUUEc8VNQ+V7pJHOe9xJc5xu5xO8kq+SSVkV0m5O7PmsmAgCAIAgCA8yGwJ7isozFXZ1vhWHx0sMdPEA1kbWtaO4DeeZO8niSV5ac3OTk9WWiVuBqH+0B+2pPom/mjVrsz3ZfD6kbE6I1QrMhhAEAQBAEAQBAEBUG2oJBGoI0II3EHgUMrgb26K+kD20CjqnD2ho7Dz/ftaNf+YALkcQL8DalxmE3ftw0+X9E+lVzKz1NkqvOwQBAEAQBAYLbPaWPC6V1Q/tO92Jl7GSQjRvcNCSeAB37l2oUXVnlXxNZyUVdnMuKYjLVTPqJnZpJDdx/AADgAAABwAC9DCEYRUY6IrZSzO5arY1CAID70VHJO8RQxvkedzWNLnHvsOHfwWJSUVds2jFy0JnQ9E2KSgEshivwklF/H9WHqJLH0VzfkjusNLtLv/wAGcR/xaL/Ul/8ApWn+I0uT9PuZ/bPmfCbohxNu4UzvplOv3mhbLaFHx6GHhpcyEY1h8tLJJTzNyyM0c24NiWgjVpIOhCmU5qaUo6HLK4ySZ10vLlkaW/tA/tqT6Jv5o1bbM92Xw+pFxOiNTqzIZdYZhs1VIIaeN0kjtzWjWw3knc0ajUkDVaznGCvJ2RvGDk7InEHQ5iTmgl1Iw/K6R+YeOSMj0JUN7Ro+PT+zusM+ZGNqdlqnC5Gx1LW9sEscwlzHWNiASAbi4uLfEOak0a8KqvE5VKThqYRdTkEBltndm6rEXmOliL7WzO0axgO7M46Dw3mxsDZc6taFJXkzpCm56GfxXouxGmhfO8QOYxpc/LKLta0Xc45w0WABO/guEMdSnJRV+h0eHkkQpSyOEB7gmdG5r2OLXNIc1wNi1zTcEHgQRdGk1ZmU7O50h0b7YNxSmu+wqI7CZo3G/uyNHyusdOBBHInz+Kw+5nw0ehY0551clyjHQIAgCA8veGgkkAAXJOgAG8koDmjpE2qOKVZkaT1Ed2QDd2dMzyObyAfANHBegwtDcwt2vX88CBWqZnw0IupBwCAICrWkkBoJJ0AGpJO4DvS5lK503sLslFhdO2NoBmcAZpPie7kDwY25AHnvJJ89iK8q0r9nYiyhBRVkSOSQNF3EAcybD8VwNz4trYjukjPg4f8AVZyvkLlaysjgYZZZGMYBcuc4NaB4lIxcnZIHLW2uKtraypqWA5ZHuLb7y1rQ1pIO4lrQbcL2Xo8PBwhGL7CvnLNUudWLzZYGlv7QP7ak+ib+aNW2zfdl8PqRcTojWeD4XLWTMp4GZ5HmwHAc3OPBoGpKsJ1IwjmloRoQcnZHSWxGyMOFQdWyzpHWM0tu09w4DkwXNm8Nd5JJoMRXlWld6diLCEFFWRI1wNyN7f7MNxSjdDoJW9uFx0tIAbAn5XC7T433gLvhq+6nfs7TScFJWOZJY3McWOBa5pIc0ixa5psQRwIIIXoU78UVrVnYo1pcQGgkkgADUkncAOJKXCV3Y6k2LwBuHUcVM0DMAHSuHxyuAzuvx10HcAOC87XqurNyLOEVFWRD+nHH+ppWUbDZ9QbvtvEUZBO7dmdlHeA8KVs+lmnnfZ8zlXnaNjRSuCAEAQGX2Ux+TDaqOqj1y6Pb88brZ2edgRyIaeC5VqSqwcX+M6U55Hc6hw6ujqYmTxOzMkaHNPMOFxpwPdwXnpRcZOL1RYp3Vy5WpkIAgNa9Nm03s1MKKM/rKgHPbe2EaO++ez3gPU/AUc0870XzONaeVWNDq5IAQBAEBd4RUNiqIZX+6yWJ7vpY9rnfgCtJpuLS5M3pu0kdbNcCLjUcF5osjXnSV0dy4rKyeKpa0sZlEUgJjvcnM0tvlJuAeyb5RyU7C4tUVla+JyqU3LRmtcQ6J8Ti3QRzDnHIw/hJlJ8gp8cfSfbbz/q5wdGa0ZFcSweakcG1EEkLtbZ2Ft7b8pIs4d4upMaimrxdzlJTWpZy+6fA/ktlqax95HYi8uWZpzp0o5J6qhhhY58j2zNY0byS6P05knQAEnQK02fJRhNvTgR68XKyRNujzYqPCoO1lfUPA62Qbh/7bL65B+J1NtAImJxDrS8Ow6U6agjN7Q43DQQOqah1mN3Ae89x3MYOLj/1JsASuVOnKpLLE2lJRV2aYwPpTn/SftFS7LTSWjdEDdkLL9h45uaTdzt5Bdp7oFpUwUd1ljqu3mRoV25cdDfDXAi41B3KnJZpPpu2U6qQYlE3sSENnA3NktZj+4OAsf3gOLlbYCvdbt9mhFxFP+SMJ0O4D7XiDZXC8dMBI7l1l7RDxuC8f5a7Y6rkpW7X+P8APE0w8Lu50OTbUqjJpy7t1j5xGulqAexfJF/lMuGkfVq+3AvK9Dh6W6pqPXz/ADgV9aeaRgF3OQQBAEBt/oL2m1fhsh+aSC/rJGPXOB9aq9oUf+4vJ/QmYed1lZuNVZJCAo51tToEBy1trjxxGtmqbksJyxd0TNGaHdcdojm4r0NCnu6aj+XK+rLNIwa6nIIAgCAJcG0+jzpTFLG2krg50bAGxytGZzGjc17Rq5oGgIubWFjvVficHneaGvIl0q6taRtTDdrqCpsIayncTub1jWv+46zh6KulQqR1iyQpJ6GaBXI2LfEKCKpjdFNGyRjt7XAEH14962jJxd4sw1c5v6Ttk/0VUljCTDI1z4iTcgDR0ZO8lptryc3ebq8wlfexu9VqQ6lPLNNHTKoSaQjaraGOgxSi65rMksc0ZkO+Il8WVwPBpNg7uIPBSqVJ1KUrdlviaSkotXJuopuaT6eMPqRNDUOe51MRkY34YpNS4EcS4C4O/skcBe12fOGVx7foRcQnr2GqVYkQ3l0K7W9fD+j5nfrIW3iJ+KEWGXxZcD6S3kSqnHUMst4tHr5k6jUzKzNjYph8dVDJTzNzRyNLXDuPI8CN4PAgKDGTjJSXYdmr8CP9Heyf6KpnROcHyPke5zxxaDlj8OwGkjgXOXbE199O5rCCirFj0v7Q+xYe6NhtLUXiZzDSP1ruejezcbi9q3wdLPUu9FxMVZ5YnOqu7lcEAQBAEBeYRiT6SeKpi9+J4cOF7b2nucLtPcStZxU4uL7TeEssrnVuG1zKmGOeI3ZIxr2n914BFxwOu5edlFxk4vsLJO5crUEP6V8Z9jwyYtNny2hZzvJfNbkQwPI7wpOEp56q8OJpUlli2c2K8K0IAgCAIAgJBgGxdfXs62mp3OjuRnLmMaSNDlLyM2ulxcXBC41MRTpu0mdY0ZSV0X0vRjiw/wDRkjulgP4dZdarGUe96M23Ey8wTY7Hqd7RTRzwajUTMZGNd7mh9nDmLG/IrSpiMPJe00/gbxp1U9ToWAODWh5BdYZiNATbUjuuqV+BLNQf2iXty0jfitUHwbaK/qbeis9m6y+BwrdnmbjVYdzSn9oP9tSfRN/NGrTZ3uy+BGxOiJV0P7Xe3U3s0zrzwAC5OskW5r9d5Huu3/CT7yj4yhklmWjOlGeZEyx3CYq2nkpphdkjbHmDva5v7wIBHeFGpzcJKSOjV1Y5c2gwaWgqJKWYdphtfg9p1a9vcRr3bt4Kv6dRVIqSK6cMrsfHCsSkpJo6iF2WSNwc08ORB5tIJBHIlZnFTi4vRmISyu51JszjkeIU0dVFueNW8WOGjmHvBuO/Q7iqCrTdOTiyyjJSV0ZRczJzh0s7Qe3Yg9rTeKC8TORLT+sd5u0vxDGlXeDpZKfi+JBrzvKxC1KOAQBAEAQBAb76DMZ66hfTON3U77Dn1ct3Nv8Aa6weDQqjHwy1M3Mn0JXibIUE7GlOn7E801NSA6MY6Vw4EyHKw+IDH/eVps+HsuXwI2IfBI1OrAiBAEAQBAUedCsmVqda4DSshpYIoxZjIo2t8A0evivOTk5SbZZIv1qZCAw20W1FJhzM9TMxht2WXvK/6WDU7xruF9SF0p0Z1HaKNXJLU5x272nfilQ+oeMrQ3LEy98jBci/NxJJJ77bgFd4ekqUcqIc55po6nVATjRfT1iEclXBCxwc+KN/WAG+UyFpa08nWbe3IjmrbARag2+0i4hrgiBbOY1JQVMdVD7zDq29g9p0cx3cR6Gx4KXUpqpFxZwpzyu50/s/jkFfC2op3hzTvHxMdxY8fC4cvPdYqhqU5U5ZZFhGSkroiPS7sf7fT+0wtvUQAkADWSPe6PTeRq5vfcfEpODr7uWV6M51aeZeJz4CrggHQHQjgz6egMzy7/zD87W3NgwDK11t13WvfiMnJU+OqKVSy7CfRjaJn+kPaD9HUEs4NpCOrh59Y+4BHPKMz7cmFccPS3lRLs7TecssbnMAV9crQgCAIAgCAICf9CWJ9TiQhJ7M8b2W4F7B1jT5Bjx9pQ8dDNSvyJGHfGx0IqcmHNPSvWmbFqk3uGFkbe4MY24+8X+qu8JG1JEGu7yIipBxCAIAgCAID701ZJF+ykkj+h7m/wApWHFPVGynJdpeM2irW+7W1g8KiYfk5a7qD/iuiNt7PmUk2grH+9WVbvGeU/m5FSgv4rohvZ8zGneTxOpPEnmVuaNtghDBlH7R1rhZ1bWEcjUTEehctN1DurojpvZ8zFrc5hAfejrZYHZ4ZZInbs0b3MdbldpBWHFS4NXNoycdC5q8cq5mlktVVSNO9r5pHtPi1ziCtVTgndJdEZdST7T77J4G7EKyGlbez3dsj4Y26vdfgcoIHeWjisVaipwcjNKOaR1TBC2NrWMAa1oAaBuAAsAO4AKgbbd2WBofpvx/2isbSMPYpx2uRleAXdxytyjuJeFbYGnlhm5kTES42NbqaRggCAIAgCAIDK7KVpp66mmBtlmiJ+kvAf8Awlw81zqxzU5LwOlJ2kjq9UBYHJm0kvWVlU/5qid33pXH+q9BSVoR8l8ivqe8zHLc5hAEAQBAEAQBAEAQBAEAQBAEAQG5Ogikp42TVLpoevecgZnb1jImm5Jbe4zuHmI2qtx0pNqNuBMoRSVyc7YbbUuGwucZI3zWPVwtcC5zuFwNWsvvcfK5sDFo4edR6cOZ1nNRXE5mqJ3SPdJI4ue9znPcd7nOJLnHxJJV4kkrIr5O7ufNDAQBAEAQBAEBR+4+BWUZjqdL/wDF3e1UW6LG5zZM/M5zuZJ9TdXiVkVzd2eEMBAEAQBAEAQBAEAQBAEAQBAEAQAi+9DKdgBbchi9wgCAIAgCAIAgCAIDM/ps965bo770zb4gCRYaEjdyXht7PvPqfY1RpNXyroinVjkPRY3s+8+pncUu6uiHVjkPRN7PvPqNxS7q6IdWOQ9Fne1O8+o3FLuroh1Y5D0Te1O8+o3FLuroh1Y5D0Tez7z6mNxS7q6Ir1Y5BN7PvPqxuKXdXRDqhyHom9n3n1G4pd1dEOrHIeib2fefUbil3V0RXqhyHom9n3n1Y3FLuroh1Y5D0Tez7z6sxuKXdXRDqhyHom9n3n1Y3FLuroh1Q5D0Tez7z6sbml3V0RXqhyHom9n3n1Zjc0u6uiHVDkPRN7U7z6jc0u6uiK9UOQ9E3s+8+o3NLuroh1Q5D0Wd7PvPqNzS7q6IdUOQ9E3s+8+pjc0u6uiK9SOQ9E3s+8+rG5pd1dEV6kch6JvZ959RuaXdXRDqRyHom9nzfVjc0u6uiK9SOQ9E3k+b6mNzS7q6Ir1I5D0TeT7z6sxuaXdXRDqW8h6JvJ959WNzT7q6Ir1LflHom8nzfVjc0+6uiK9S3kPRZ3k+b6mNzT7q6IdQ35R6JvJ831Y3NLuroivUN+UeibyfefUxuqfdXRFz+jhyHp/+LfNU7z6s4/5XdXRHwxWLJUTM+WWUej3D+i4zVpNeLJeGnmoU5c4xfoi1stTuVsgFkMCyArZBcWQXFkMXK2QXFkFytkMXGVBcrlQXK5VkxcZUFyuVDFyuVBcrlQXGVDFyuVDFyuVZFyuVDFyuVLC5XKhi4yoLlciyYuVyJYxcPFgT3IZT4m0v+Gv3B6BWO48DxP8AiXia723puqr6gWsC4OHfna1xPqSoOIjaoz1mx6u8wVN8lbo2vlYwllxLK4sguVshi5XKguMqC5XKsmLjKguVyoYuVyoLlcqC4yoYuVyrJi5XKguVyoYuVyoLlcqGLjKguesqyYuMiGLlciC5XIhi5XIs2MXPWRBcrkQxcrkQxcrkQZi6wyl6yaKO180jAfAuAP4XW8I3kkcMRV3dGc+Sb9Dditz50av6VqLLURTC9nxlp5Xjdf1Ik/hVdjI+0mez/TVe9CdLk79V/XqQjKoZ6O5XKguVyoYuMqC5XKsmLlcqC5XKhi5XKguVyoYuVyoLlcqyYuMiWMXPWRBcqGIYuVDFkxcrkQXK5EMXJNsrss2tjfI+RzcrsoDQN4aHEm/1DTuUijQU022U20tqywtSMIxTur8fO30I0xtwCo5cN2Z6yLNjGY9BiWMZioYljGYqGLNjGYqI0sYzHoMQZivVpYxmJBsPR56truEbXO/DKPxdfyUjDxvPyKrbFbJhWu80vr9DZqsDxxGOkTD+uonOA7UREg8BcP8AINc4+QUfFQzU/IudhYjdYtRekvZ+3qkvialyqrPdXK5UMXK5UFyXbF7Lx1DHVNT+yaSA2+UOyi7nOcNQ0eW48N8uhQjJZpaFBtbalShNUaHvPt1tfRJc/wA1Mi/HcIacraNrx8wp47H75DvULfe0Fwy+hEWB2tJXdZp8s8vpdFrjM2ESwvdEzJMGnqw1kjO0R2bgDIRff3LWboOLa1O2FhtWnWiqjvC/G7T4dviYzYiijmq2slY17crzlcLi4GmhXPDxUp2ZN2xWnSwrlTbTuuKJLiWzdDTzPqaktZEcvVwtuASAMxs3U6/CNBqTv0kSo04ycpacinw+0sZXpRo0FeXG8nbnw14fF8eWnH5w4xhDzkNKxg+YwMt43bdw8VhVKD4ZfQ2ng9qxWZVW/BSf1siz2p2RZHH7TSG8dszm3zANPxsdxbxN76a3WtbDpLNDQkbN2vOpU3GI97RPTjya5/8AFiJRwlxDWgkkgADeSTYAeaipXL6U1FNvRE8o9maShiE1c4Od8puWA/K1o1efG+69gpsaMKazTPMVdp4rF1HTwisufb5t9n4rsozF8JechpWsHzdSwDyLO0E3lB8LegeD2pBZlVbfLM/rwLLaXZNkcftNKc0Vrlt81m/Mx3FvjfndaVaCSzQ0JGz9rznPc4hWlpfTjya7H/xYweAU7X1MLHgOaXtBB3EciuNJJzSZZ42pKOHnKLs0mTPF9kIXzteA2GBrLyFtm3IJ3cG6bz4eIlzw8XK+iPO4Xa9WFFxd5zb4X4/2/BFpWzYUyJ8cTGuflcGnI9xzEGxD3DnxutZOik0kSKMNpzqRnNtK6vxS4eS+Re9HItTS3/xT/wDGxbYX3X5kfbzvXh/t+rLdtXhFtIh/pvWuahyOro7V73qiOYyIZZ7UrLMOVrRa13HkDu1IC4VMrl7Bb4R1adG+IfHi35Eq/RFFh8bXVLRI93MZsxG8NYdABzPMaqTu6dNe1xKP93jMbUaovKlydreb1v5dD5NxfDH6OpWt7+pZ/suVhVKL7PQ6PCbSjxVS/wD7P68DA7QR0udvsl8pBze/a99LZ9ea4VVC/sFngZYrK/3GvZp9DFiNc7E3MehGljGYqI1mxjMTnYGiyxPmPxusPpZf/cXDyUzDRsmzzW2q2apGnyXq/wCrEqUkpTzJGHAtcLgggjmDvCNXMxk4tNao0li2GmmnkgN+w4gE8WnVp8wR53VPOGSTifRsLiViKMaq7V69q6lrkWp3uVyIYuTfYnGYRC6jqCGhxdlLtGua/wB5hPA3v6qZh6kcuSR5va+CrOqsTR4tWvbVNaMrXdHx1dTzAjg14/3tvf7qSwndZij+oVpWh8V9n9yNYpgU9L+1jIHBw7TD5jd4GxUedKUNUXGHx9DEf6cuPLR9PsZTYBtq1v0P/JdcN/qEPbb/AOkfmiu3ri6scCSQ1rA0cACLm3mUxPGZjYqUcImu1u5Hsi4WLXMbA6O6gvhlgdq1hFgd2WQOu3wu1x+0VOwrvFxZ5bbtNQqwqx4N/NW4+q6GH2MoGivLTr1QlIvza4MB/iuuNCH+Z5XJ+1sQ3gk1/LL6q/0PntvUOlq3NPuxhrWjxaHOPiSf4QsYhtztyN9j01TwqktZcX1svzxMDkXEtMxOuj2cujlgdq1paQDutJmzDwu2/wBoqbhXdOJ5nbtNRqQqrV39LWfr6Edwmm6uuYwbmTFo+y4j+ijwVqiXiWuJqOeDlJ9sb9Vcz3SFUPvHCDZhBcRzINhfuH/e4LviW+CKzYdKNpVO3ReBDhGolj0GYnmwLbU8n+Yf5GKbhvdZ5jbbvXh/t+rIKyPQeChWPTOXEqyqZE5ry9gLXAi5A1aQf6LOZRdzDpSqxcbPirdSdulo8Yjb1cwztvYAgvbe1wW8RoNRy3qZenXXB8TzKjitlzeeHsvo+Vnz/LGGxDZGojBMeWbuBDHHycbfiuUsPJacSwobYoVHad4+q9OPoQfEMZfA8xPgcx7d4ebEeVlDlUcXZo9JQwcK0FOM00+RYP2hlO4MHkT+ZWm+kSls6ktWy2fjE5/vD5AD8gtd5LmdVg6K/ieKYTVEjIWuc5z3BoBcTcuNhdYWaTsjapuqEHUaSSV9OR0ThNA2mhjgZ7sbWtB4mw1J7ybnzV9CKhFRXYfKMTXlXrSqy1k7/nkXa2OAQEL6RMIztbVNGrey/wCknsnyJt9ruUTFU7rMj0Gw8Xkk6EtHxXn29V8vEgYjUKx6fOV6tLGMx66rS/DnwWbGM/Gxc0VXLD+ykezua4geY3HzW0ZOOjONWlSq/wCpFPzX1Ng7M1b66leKkBwuWF1rZxYa8rgneOXcp1KTqQeY8rtClHCYiLoO3bbl+eJGNhWWq2/S/wDJRsP75dbYlfCvzRc7dYa8Tme12ODRcbgQLWPLh6rbEQebN2HHY2Jg6O6v7Sv8SMiNR7FvnNgbLUXsVM+aYZS7tEHeGtHZBHzG50/eA3qdRju4Ns8vtGv+7xEadPjbh8Xr8PsRzZit6qrEj7DrMzXHgM5v6ZgFwoytO77S22jR3mFcI/xs18P6uXu22FObKagC7HgZj8rgA3XkCANed1tiKdnmI+yMXGVPcvVaeK1/PAir542+89g8XBRm0u0u1CctE+hPdmoBQ0slVP2ARmdfQhjAcoIPxEk6b9QN6m0lu4OUjzGPqPGYiNClxtwXm9fh4/QhOAY9HNXRWDsz5Qb2AF3Ek8b/AIKJTqqVReZ6LG4GdLBzu1ZRMt0q4mYJoQGg3Y7ed1nLrjJ5ZIg/pvDKtSnd2s18iAv2gmO7IPAH+pUHeyPTrAUlrdmzuiaqdLSTZ3Xd1p5DQxstu81Y4KTcHfmeO/UtKNPEwyrhl+rNQTvkuWyF9wbEOJuCN4IO4qqd+095BQteCXwPksHS56c0sOt2kW5gjiFnQ1UlJcOKJDge2NdTvaGSySgkDq33kzX0yi93D7JXeniKkXwdyqxmx8FXg3KCi+a4W8eXUmvTJSMNPDOQBIJMl+OVzXOIPOxaPC55qXjorKpdp539K1ZqvUpX9m1/iml8n+WNTqsPc3CC5sXoiwHPK6teOzHdsfe8jtO8gbfa7lPwVK7zs8n+p8flprDRfF8X5di+L+XibZVmeHCAIDxNE17SxwBa4EEHcQdCFhq/Bm0ZOMlKOqNV4zhJpZXRm5G9h5tO4+PA94VdUp5ZWPZ4XFqvSU1r2+ZZCNa2JGYkmAbRClj6l0WZtybg2OvMEWPqu9OrlVrFTjdnvEVN4pWZfux3Dz2nUuvfFET63W+8pd30RFWCxy4Kr/8AUvsY/G9to3MMMRZE0ixJc3Nl5NaPd8dfJaVMQrWXAlYTY01PeVLyfk7X8W9Sz2Er4n1jWMdc5H7gbbudrLTDyTqWRI2xRqRwrlJcLov9o9uPYK2SB0bpGWYS3QWu0Xyk/kR6Lerid3UcWrkXA7F/eYWNSMsr48fj2/ct4ukTDWdtlJI1/dFE0/eDlhYukuKXojrL9P7Qn7Mqqa/3SfpYi20u31RWHKwNiiG5vvEnm4nQ+FreO9RquKlPTgi5wGwqGGV5PNLnp0RHJMTmdvkd5dn8rLg5yfaW0cPSjpFEy2a6SJIGCGqYZmAWDwf1gFtzr6P4DWx5kqVSxbirSVygx/6dp1ZOpQllfLs+HL1+BlYtu8KiPWRUTmya2IhhYfvB111WJorio+iIUth7SqLJUrXj4yk/SxEtrNsp8R7BAjiBuI2km55vdpmPkB3cVFrYiVXhoi82bsejgvaXtS5v6Ls+Zitn65tNVQzuBLY3hxAtcgcrrnTlkmpMm42i6+HnSi7Nq3EzG320seIyxviY9rWMI7dsxJNzo0kW3cV1xNZVWmiBsXZ08DTlGo023fhp62Iuo5c3M/sdtPJhspcG543gCRm4m17OaeDhc9xBPcR2oVnSdyr2ps2GOpqLdpLR/R+DJpLt7hTnda6ie6XfmMMJdcDQ5y6/mpbxVFu+Xj5I8/HYW0ox3arJR5ZpW6WIrtRtcK2phqGwBghIsCbl4Dw4B1hoNN2u8qNVr55KVtC62dsp4XD1KTnfP6cLcPxaEpb0l0k7ctVRuPcBHK3+PKpP7yEl7cfqUz/TeKpSvh6y9Yv0uI9vMLgOenonNfbQthhj8swNx6IsTRjxjH0QlsPaVX2a1a68ZSfpYhO1m00uJSB7wGMbcMYDcNvvJPFxsNdN25Q61Z1Xdnodm7NpYGDjDi3q+f2Rg1yLK5eYPhklXMyniHaebdzRxce4C58ltCDnJRRHxWKhhqUqs9F6+HxOhcIw5lJCynj91jQBzJ4uPeTcnvKu4QUIqKPl2JxE8RVlVnq3+L4aF4tzgEAQBAYfafCTVQkMyiVoJjLt1/ldbWx3eh4LlVhnjw1JuAxSw9VOXuvW3z80aSq8XqWOdG60bmkhwy6gjeDmuqpzknY+g08LQlFSjxT04/axZSYjM7fK/wAjl/lstM0uZ3jQpLSK/PMt3uLveJPiSfzWp1VloebJYzmJFsFi0VHWCaYkMyPFwC7U2toNV3w81Cd2Ve2MNUxOGdOmru6fI+e2+Kx1lbJPDcsIYASLE5WgE2Oo1WK81ObaN9k4aphsLGlU14+rMCuNixuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC5UBLC5uro62V9hi66Ufr5BrzjZvDPHie+w4XVrhqG7V3qzwO29qfu6m7pv2I+r5/b+yYqUUQQBAEAQBAQbpD2N9raamnb+vaO00f3rRuH1gbjxGnK0TE4fP7Udfmeg2Ltb9u9zVfsPT/wAX9n29eZp8i2h0PEcRZVlj297lEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFzZ/RvsXly1tS3XQwxkbuUjhz5Dhv32tPw2H/nL4Hk9t7XvfD0Xw/k/ovr05my1PPKBAEAQBAEAQBAQXbvYYVV6mmAbPvc3QNl/oH9+48eYiV8Pn9qOvzL/ZO2Xh7Uq3GHY+7/AF8uzkailicxxa5pa4EhzSCHAjeCDqCq5q2p7OM1JJxd0zysGbhBcILhBcILhBcILhBcILhBcILhBcILhBcILhBcWQXNnbB7BWy1VY3XQxwkbuTpBz5N4cddBPw+G/lPoeV2ttu96OHfnL6L79OHF7LU48sEAQBAEAQBAEAQBARra3Y6HEBm/ZzAdmQDf3PHxD8RwPPhVoRqce0s9n7Uq4R21jy+3L5GnscwKehf1c7LX91w1jf9LuPgbHuVdOnKDtI9nhcbRxMc1N+a7V5r8RjVoSbhBcILhBcILhBcILhBcILhBcILhBcILhBcvMLwyaqkEUEbnu7twHNx3NHeVtGDk7I418TToQz1HZfmnM23sdsJFRWmmIln4H4Iz+4DvP7x15W1VhRw6hxfFnj9o7YqYm8IezD1fn9vmTFSSmCAIAgCAIAgCAIAgCAID4VtHHOwxysa9h3tcAQfXj3rEoqSszenVnTkpwdmu1GudoujK130T/8AlPP4MkP5O+8odTCdsD0mE2//ABxC+K+q+3Q19iFBLTv6ueN8buTha/e07nDvFwocouLsz0FKvTqxzU2mvD84fEt1g6XCC4QXCC4QXCC4QXCC4QXCC59KanfK8Rxsc953NaC53jYcO9ZSbdkazqRhHNN2XNk72e6NJZLPrHdU3/DaQZD9TtWt8rnwUqnhW/eKHF7ehD2aCu+b06av0+JsvCsLhpGdVBG2NvIbyebidXHvOqmxhGKsjzVfEVa8s9SV3+aci8WxxCAIAgCAIAgCAIAgCAIAgCAID4VtHHOwxyxskYd7XNDh6FYcVJWZvTqzpyzQbT8CHYt0ZUst3QPfA7l+0j+645vIOAUeWFi9OBcUNu14cKiUvR9V9iI4j0cV0VzGI5hwyuyu82vsB94qPLDTWnEtqW28NP3rx81ddV9iP1mCVUJtJTzt7zG4t+8Bl/FcXTktUWFPFUKnuTT+K+Wpjs45j1WpIsz0hgIDyXgbyPVDNmXtJhVRNbqoJn33FsbiPvAWWyhJ6I4VMRSp+/NLzaJBh/R5Xy+8xkQ5yPF7cwGZj5Gy6xw034ECrtnCw0bl5L72+pK8K6L4GWNRK+U/K39WzzsS4+Tgu8cJFe87lVX29VlwpRUfPi/t6E0w3DIaZuSCJkbeIaALnm47ye8qTGEY8EimrV6laWapJt+JdrY5BAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEBGtqv6LjULDBGoMV3qvkevoaHyw73liJtW0Nr7H/B4D8lPpHlcfqyZKQVAQBAEAQBAEAQBAEAQBAEB//9k=</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B98EFF9-4DAE-452A-BE8D-7C0ADA86816C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +464,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/channels.xlsx
+++ b/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Eshwar Reddy\Desktop\TVapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38520D2-0843-47D5-B38A-F9FC9ED2EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E44E63-B34C-4324-B19C-A927AF9951C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{992D5F35-52F0-4162-A3CE-20905C51C6A9}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Willow TV</t>
   </si>
   <si>
-    <t>https://off1.dunyapurkaraja.com:1686/hls/willowusa.m3u8?md5=SequRiyYL7CojKIBtD01yQ&amp;expires=1742183354</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAKgAtAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABwgBBgIEBQP/xABCEAABAwMCAwMHCgQEBwAAAAABAAIDBAURBhIHITETcYEUIjJBUWGCNjdCcnSRkqGxshVzdbMkY8HRCBYjM0NGYv/EABkBAQADAQEAAAAAAAAAAAAAAAABAwQFAv/EAB4RAQACAQUBAQAAAAAAAAAAAAABAhEDBBITITEy/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQcXepRZo/XTrpxQvNA6X/AAVSOyog7oHQ5zj6w3u8Atu4j306f0fcKyNxbUPZ2NOR1Ej+QI7sl3gq1W6Stsk9svFPEWhkxkpnHpIY3Dc0e7ng95QW7BUc8a9UVVistJSWyofT1tbPylYcFsbMF2D3lg7iVvdtrYblb6eupHF8FRG2WN3TLSMj9f1VeeJNdNq3iK+hoXBzWSMt9MQeWQ7Dj+Mu5+xoQSnwdddq3TD7ne7hU1clZKTD2zydsTfNBHsy4OPdhR1ozVWoa3iLQ0VVeayWkkrpWOhfJlu0B+B+Sni0UENrtlLb6UYhpomxM7mjA/RVu0F86Nu/qMv6PQWL1DI+HT9ylieY5GUkrmOb1BDCQoc4O6nvl21iKa5XWrqoPI5H9nNJkbgW4P5qYdT/ACau/wBim/Y5QTwJ+XY+wzfuYgsSMepYeSGnAJ5HouQXGT0D3IK+cMdWahuOubRR115rKimldIHxSSZa7ETyPzAVg2+vHtVYuEPziWL60v8AZkVnggFeRqG/UGn6A1dfJtHRjBzc8+wBerIQBzxjBzlV21tfZdRakkc1xMDSY4B6gwevx6leL34w1bTb91/Z8j62Wq19qC9zvFtcy3Urer2jc7uLnDr7gAvi3Ud7ZKBHc6nAAO5793Mj18sZ9w8Rjp1YIWQ08UNIx/mkZOHYdjPnADkeeenMHHsX0qYPJrf2xl3Hzsb+fX1n245ePu5HPyn7l1urT/NKtltPEiOlljp73LG7OB2jR54HtcG8vuwPYSpGpp4qinbNDI18T25a4HkQqnVj3CoLzIS8u3OcTzz6/wA8lTBwU1DJUMms87twa3tYc/R5+cB7uYI8VbS+WPd7Sta86NVr9V6h0jxEdS3G71k9BTVY3xTSZa6nf0OPcwj4grARODmgtIIwMEdCoX4/2TEluv0LeTgaSbly9bmH83j7lu3CO+fxvRVIZHEz0R8klyeZ2AbSfeWFvjlXOW9vWV5Zp/TVwursb6eEmIH6Uh81g8XEDxWu8Gb+696OiiqZC+roH+TyFx5uaObHH4SB8JWqf8QV9DWW6xMdgEmrqMHBAGWxj79x+ELX+ENzn07ruS0V7TAK3NJNG7lsmbksz787m/EEFh0XDr0APeiCDOOt9FyuNps9Ce1ibE2q2tPKV0nJg/CD+Nezr/RLaLhXQRU7QauyME0jm9Xbv+94ZO74VpnCKzyag1rBUVRM0FsjbK5zuhLAGQt7hgEfUVip4Y6mGSCdgdHI0se09HAjmgh3h1rUWvhpemyvBnszSaff9ISZ7MfjJHdheLwMsrrhqme6z73st0e7c4elM/kOfr80PPiFpeoLfU6cu91skkzhGyXY7P8A5WAh8ZPhg+KsBwgsn8F0XSOkaRUV3+Llz184DaPBgb45QboFWTQXzo27+oy/o9Wc9irHoL50bd/UZf0egsTqf5NXf7FN+xygngT8ux9hm/cxTtqf5NXf7FN+xygngT8ux9hm/cxQLErEnoHuWViT0D3KRWLhD84li+tL/ZkVngqw8IfnEsX1pf7Mis8EHSvRcLTWmP0+wft79pwq2UDTFVT1TjhzXbGnnyPUnkD0GPUrPSta9ha4ZBGMKverrLLaLvPbWtAie8mNzvpMcSQeh6YI+9VasZw37LUisWq+FJVspWmepDduzcWtkDXA+raWgZP+pb05rzbnqB9QzacYAwA3oB7Auhf69wijiBee1Pav3OySB0z3Eub3NC8EzHHNVYdCmrEPvNNudn2rfuCj3v1hTtZ0EUjnd20j9SFGm8k8s59ynXgRpqWlpZ7/AFcRYalnY0od1Mecud3EgY+rnoQrKVxLLuNfNJhIGuLI3UWlbja8f9WWImH+Y3zmeG4DPuUOcCb06g1PNa6glsdwi80O5Yljycfh3/hap/Pq/NVp4l2ybTGvaqWic6FlQ7yune0+jvzuGfr7uXsIVrlO7aWHX/Ft1SQX0YqDUH2GniIDB3OIYPjK7nG20S2jVtNfKFzovLAJA8D0J4sc+/GwjuK2ngJYfJLFVXqZgEldJ2cZ/wAqMkZ8XbvABbLxVsJv2ja2KFhdVUw8pgwOe5oJIHvLdw7yFI79n1VarhZrfcKmpgp3VdO2bsnO5tzyI8HBw8EVWXTyyRQsMh7OJpbG0v5NaXF2B7suJ8SsoLEcF9OSWLSpqKyExVtfKZZWuHnNaOTGnwy74lvzllEEV8T9DG/6ssFXE0mKqlFNXOafoNy8H3eaJBn27VKMbQxoa1oaAMAAYA7lzRBg9RyVfdHaT1DR8RKGuq7PVxUjK6R7pns5bSH4P5qwaIPN1DE+aw3KKFhklkpJWMa3qSWkDCrjbNLa6tNR5RbbTdKafZs7SFu12PWM+AVoEQVzMXFXny1Bk8/TP+6lPhUzUQ09WDVHlvlZq3dn5W4l3Z7GYxn1Z3LeUQVbt+ktaW6oiq6Cy3OmqI87JYm4czIIOD3EjxXsdlxV3f8AsOf5jsfqrGIgjvhC3VDae5/81/xDfvj7Dy1xPLDs7c+GfBbTqXT1Jf6PsqoEPaHdnI30mEjHJe2sKJ9TEzHsK86w4XaljrXS0FM2vpwDsdC8B2C4nm12Dnn6s961qn4d6xqH7I7DVNJPPtNrAPvICtWsqOMLe+2EK6L4LGCeOs1XNHJs85tHASWk/wD271j3D78KZoI2QxtijYGMY0Na1rQAAOgwFzKyvWFU2mZ9YKjfjNpWe/2221NvZurYKpsI9myUhhJ7nbPDKklEQ6Vmt0NptdLbqYYgpYWxR564aMc123cx6s+9ckQVh1roi8W7VFwp7TbJZaHtS+BzByDXecG/Dnb4IrPIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//Z</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIPERUQERISFRUXGBUaFhcYFxgXFRcYFRcXGhgXFxgYHSggGRslHhUXITIhJykrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLy0tLS8tLS8tLS0tLy0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEEBQcIAgP/xABIEAABAwIDBAcFBAcGBAcAAAABAAIDBBEFEiEGMUFRBxMiYXGBkRQyQlJygpKhsRUjM2KissEIQ1Nzk8IWg9HwFyREY7PT4f/EABsBAQACAwEBAAAAAAAAAAAAAAAEBQECAwYH/8QAOhEAAgECAwUFBwQABQUAAAAAAAECAxEEEjEFEyFRkUFSYXGhIjKBscHR8AYUQuEVIzNy8SRDYoKi/9oADAMBAAIRAxEAPwDeKAIAgCAIAgCAICjjYXO5ARHHOknDaS7TN1zx8EI6w94zXDAe4uBUulga1Tst5/lznKrGOrILi3TVM64paWNg4OlcXk+LGZQD9oqdT2XH+cun59DhLFLsRFq/pIxSYm9UWA/DGxjAPAhub8VKjgaEf438zk8RNmDmx6rf79XVO+qaQ/m5d1RprSK6I03s+ZYvlc73nOPiSfzXRJLQ0bb1DJC3cSPA2SyYTa0LyHGqqP3KqpZbdlmkb+Tlo6VN6xXRGyqzXaZmh6QsUhtlrJHAcJAyS/iXtLvxuuMsFQl/H6G6xE0SjC+mipZpUU0MovvjLonW884J9FFnsuD9yTXr9jrHFc0TjBOlPDqmzXyOp3HhMA1v+oCWAeJCg1MBWhor+X21O8a0JE0hla9oc1wc06ggggjmCN6htNcGdT2sAIAgCAIAgCAIAgCAIAgCAIAgPL3hoJJAAFyToABvJKA1xtZ0uU1PeOjaKmT572gafqGsn2dD8ysaGzpz4z4L1/r84HCpXjHQ1JtFtbWYgT7TM4s/wm9mIcuwNHW5uue9W1LD06XuL49pEnWlIwi7HIIAgCAIAgCAIAgCAyeBbQ1VA7NSzPj1uWg3jcf3mG7SdLXtdc6tGFVWmrnSNWUdDa2ynTDHIRHXxiJ27rYwTEfqZq5niMw8FVV9mtcabv4dpLhiE+DNo0tSyZjZI3texwu1zSHNcOYI0IVY04uzJB9VgBAEAQBAEAQBAEAQBAEBgtq9q6bDI+snd2jfJG3WSQj5RwHNxsBca6hdqGHnWdo9TWU1FXZoTbHbmqxQlsh6uC/ZgYezpuLzoZDu36aaAK9w+FhR04vn+aEGpWcuHYRhSTiEAQBAEAQBAEAQBAEAQBAEBnNltrKrDH5qd/YJu+J2sT/FvA/vCx0G8aLjXw8KytJfHtOlOq4G+tituabFW2YernAu+Fx7Q5uYfjb3jUaXAuFRYjCzovjxXMnQqRnoSlRjoEAQBAEAQBAEAQBAQrpC2/iwtvVR5ZKpw7LPhYDufLbhybvPcNRMwuEdZ3fCP5ocqlRQRz9ieJS1Urp55HSSO3ud+AAGgA4AaBXsIRgssVZECU3J3ZarY1CAIAgCAIDLYNs1WVoJpqaSQDQuADWX5Z3ENv3XXKpXp0/edjpGlKWh5x3Z+qoHNbVQmIvBLQXMdcNtexY4jiFmnWhU4wdzE6coamLXQ0CAIAgCAIAgCA+tNUPie2SNzmPabtc02c0jiCNyw0pKzMqTTujenRt0kNrstLVlrKnc1+gZPbkNzZObdx3jkKXF4Ld+3DT5f0TqVXOrPU2Oq87hAEAQBAEAQBAQrpJ25bhcXVx5XVUg7DTqGN3da8crg2HEg8AbS8JhXWd37q/LHOpUUEc8VNQ+V7pJHOe9xJc5xu5xO8kq+SSVkV0m5O7PmsmAgCAIAgCA8yGwJ7isozFXZ1vhWHx0sMdPEA1kbWtaO4DeeZO8niSV5ac3OTk9WWiVuBqH+0B+2pPom/mjVrsz3ZfD6kbE6I1QrMhhAEAQBAEAQBAEBUG2oJBGoI0II3EHgUMrgb26K+kD20CjqnD2ho7Dz/ftaNf+YALkcQL8DalxmE3ftw0+X9E+lVzKz1NkqvOwQBAEAQBAYLbPaWPC6V1Q/tO92Jl7GSQjRvcNCSeAB37l2oUXVnlXxNZyUVdnMuKYjLVTPqJnZpJDdx/AADgAAABwAC9DCEYRUY6IrZSzO5arY1CAID70VHJO8RQxvkedzWNLnHvsOHfwWJSUVds2jFy0JnQ9E2KSgEshivwklF/H9WHqJLH0VzfkjusNLtLv/wAGcR/xaL/Ul/8ApWn+I0uT9PuZ/bPmfCbohxNu4UzvplOv3mhbLaFHx6GHhpcyEY1h8tLJJTzNyyM0c24NiWgjVpIOhCmU5qaUo6HLK4ySZ10vLlkaW/tA/tqT6Jv5o1bbM92Xw+pFxOiNTqzIZdYZhs1VIIaeN0kjtzWjWw3knc0ajUkDVaznGCvJ2RvGDk7InEHQ5iTmgl1Iw/K6R+YeOSMj0JUN7Ro+PT+zusM+ZGNqdlqnC5Gx1LW9sEscwlzHWNiASAbi4uLfEOak0a8KqvE5VKThqYRdTkEBltndm6rEXmOliL7WzO0axgO7M46Dw3mxsDZc6taFJXkzpCm56GfxXouxGmhfO8QOYxpc/LKLta0Xc45w0WABO/guEMdSnJRV+h0eHkkQpSyOEB7gmdG5r2OLXNIc1wNi1zTcEHgQRdGk1ZmU7O50h0b7YNxSmu+wqI7CZo3G/uyNHyusdOBBHInz+Kw+5nw0ehY0551clyjHQIAgCA8veGgkkAAXJOgAG8koDmjpE2qOKVZkaT1Ed2QDd2dMzyObyAfANHBegwtDcwt2vX88CBWqZnw0IupBwCAICrWkkBoJJ0AGpJO4DvS5lK503sLslFhdO2NoBmcAZpPie7kDwY25AHnvJJ89iK8q0r9nYiyhBRVkSOSQNF3EAcybD8VwNz4trYjukjPg4f8AVZyvkLlaysjgYZZZGMYBcuc4NaB4lIxcnZIHLW2uKtraypqWA5ZHuLb7y1rQ1pIO4lrQbcL2Xo8PBwhGL7CvnLNUudWLzZYGlv7QP7ak+ib+aNW2zfdl8PqRcTojWeD4XLWTMp4GZ5HmwHAc3OPBoGpKsJ1IwjmloRoQcnZHSWxGyMOFQdWyzpHWM0tu09w4DkwXNm8Nd5JJoMRXlWld6diLCEFFWRI1wNyN7f7MNxSjdDoJW9uFx0tIAbAn5XC7T433gLvhq+6nfs7TScFJWOZJY3McWOBa5pIc0ixa5psQRwIIIXoU78UVrVnYo1pcQGgkkgADUkncAOJKXCV3Y6k2LwBuHUcVM0DMAHSuHxyuAzuvx10HcAOC87XqurNyLOEVFWRD+nHH+ppWUbDZ9QbvtvEUZBO7dmdlHeA8KVs+lmnnfZ8zlXnaNjRSuCAEAQGX2Ux+TDaqOqj1y6Pb88brZ2edgRyIaeC5VqSqwcX+M6U55Hc6hw6ujqYmTxOzMkaHNPMOFxpwPdwXnpRcZOL1RYp3Vy5WpkIAgNa9Nm03s1MKKM/rKgHPbe2EaO++ez3gPU/AUc0870XzONaeVWNDq5IAQBAEBd4RUNiqIZX+6yWJ7vpY9rnfgCtJpuLS5M3pu0kdbNcCLjUcF5osjXnSV0dy4rKyeKpa0sZlEUgJjvcnM0tvlJuAeyb5RyU7C4tUVla+JyqU3LRmtcQ6J8Ti3QRzDnHIw/hJlJ8gp8cfSfbbz/q5wdGa0ZFcSweakcG1EEkLtbZ2Ft7b8pIs4d4upMaimrxdzlJTWpZy+6fA/ktlqax95HYi8uWZpzp0o5J6qhhhY58j2zNY0byS6P05knQAEnQK02fJRhNvTgR68XKyRNujzYqPCoO1lfUPA62Qbh/7bL65B+J1NtAImJxDrS8Ow6U6agjN7Q43DQQOqah1mN3Ae89x3MYOLj/1JsASuVOnKpLLE2lJRV2aYwPpTn/SftFS7LTSWjdEDdkLL9h45uaTdzt5Bdp7oFpUwUd1ljqu3mRoV25cdDfDXAi41B3KnJZpPpu2U6qQYlE3sSENnA3NktZj+4OAsf3gOLlbYCvdbt9mhFxFP+SMJ0O4D7XiDZXC8dMBI7l1l7RDxuC8f5a7Y6rkpW7X+P8APE0w8Lu50OTbUqjJpy7t1j5xGulqAexfJF/lMuGkfVq+3AvK9Dh6W6pqPXz/ADgV9aeaRgF3OQQBAEBt/oL2m1fhsh+aSC/rJGPXOB9aq9oUf+4vJ/QmYed1lZuNVZJCAo51tToEBy1trjxxGtmqbksJyxd0TNGaHdcdojm4r0NCnu6aj+XK+rLNIwa6nIIAgCAJcG0+jzpTFLG2krg50bAGxytGZzGjc17Rq5oGgIubWFjvVficHneaGvIl0q6taRtTDdrqCpsIayncTub1jWv+46zh6KulQqR1iyQpJ6GaBXI2LfEKCKpjdFNGyRjt7XAEH14962jJxd4sw1c5v6Ttk/0VUljCTDI1z4iTcgDR0ZO8lptryc3ebq8wlfexu9VqQ6lPLNNHTKoSaQjaraGOgxSi65rMksc0ZkO+Il8WVwPBpNg7uIPBSqVJ1KUrdlviaSkotXJuopuaT6eMPqRNDUOe51MRkY34YpNS4EcS4C4O/skcBe12fOGVx7foRcQnr2GqVYkQ3l0K7W9fD+j5nfrIW3iJ+KEWGXxZcD6S3kSqnHUMst4tHr5k6jUzKzNjYph8dVDJTzNzRyNLXDuPI8CN4PAgKDGTjJSXYdmr8CP9Heyf6KpnROcHyPke5zxxaDlj8OwGkjgXOXbE199O5rCCirFj0v7Q+xYe6NhtLUXiZzDSP1ruejezcbi9q3wdLPUu9FxMVZ5YnOqu7lcEAQBAEBeYRiT6SeKpi9+J4cOF7b2nucLtPcStZxU4uL7TeEssrnVuG1zKmGOeI3ZIxr2n914BFxwOu5edlFxk4vsLJO5crUEP6V8Z9jwyYtNny2hZzvJfNbkQwPI7wpOEp56q8OJpUlli2c2K8K0IAgCAIAgJBgGxdfXs62mp3OjuRnLmMaSNDlLyM2ulxcXBC41MRTpu0mdY0ZSV0X0vRjiw/wDRkjulgP4dZdarGUe96M23Ey8wTY7Hqd7RTRzwajUTMZGNd7mh9nDmLG/IrSpiMPJe00/gbxp1U9ToWAODWh5BdYZiNATbUjuuqV+BLNQf2iXty0jfitUHwbaK/qbeis9m6y+BwrdnmbjVYdzSn9oP9tSfRN/NGrTZ3uy+BGxOiJV0P7Xe3U3s0zrzwAC5OskW5r9d5Huu3/CT7yj4yhklmWjOlGeZEyx3CYq2nkpphdkjbHmDva5v7wIBHeFGpzcJKSOjV1Y5c2gwaWgqJKWYdphtfg9p1a9vcRr3bt4Kv6dRVIqSK6cMrsfHCsSkpJo6iF2WSNwc08ORB5tIJBHIlZnFTi4vRmISyu51JszjkeIU0dVFueNW8WOGjmHvBuO/Q7iqCrTdOTiyyjJSV0ZRczJzh0s7Qe3Yg9rTeKC8TORLT+sd5u0vxDGlXeDpZKfi+JBrzvKxC1KOAQBAEAQBAb76DMZ66hfTON3U77Dn1ct3Nv8Aa6weDQqjHwy1M3Mn0JXibIUE7GlOn7E801NSA6MY6Vw4EyHKw+IDH/eVps+HsuXwI2IfBI1OrAiBAEAQBAUedCsmVqda4DSshpYIoxZjIo2t8A0evivOTk5SbZZIv1qZCAw20W1FJhzM9TMxht2WXvK/6WDU7xruF9SF0p0Z1HaKNXJLU5x272nfilQ+oeMrQ3LEy98jBci/NxJJJ77bgFd4ekqUcqIc55po6nVATjRfT1iEclXBCxwc+KN/WAG+UyFpa08nWbe3IjmrbARag2+0i4hrgiBbOY1JQVMdVD7zDq29g9p0cx3cR6Gx4KXUpqpFxZwpzyu50/s/jkFfC2op3hzTvHxMdxY8fC4cvPdYqhqU5U5ZZFhGSkroiPS7sf7fT+0wtvUQAkADWSPe6PTeRq5vfcfEpODr7uWV6M51aeZeJz4CrggHQHQjgz6egMzy7/zD87W3NgwDK11t13WvfiMnJU+OqKVSy7CfRjaJn+kPaD9HUEs4NpCOrh59Y+4BHPKMz7cmFccPS3lRLs7TecssbnMAV9crQgCAIAgCAICf9CWJ9TiQhJ7M8b2W4F7B1jT5Bjx9pQ8dDNSvyJGHfGx0IqcmHNPSvWmbFqk3uGFkbe4MY24+8X+qu8JG1JEGu7yIipBxCAIAgCAID701ZJF+ykkj+h7m/wApWHFPVGynJdpeM2irW+7W1g8KiYfk5a7qD/iuiNt7PmUk2grH+9WVbvGeU/m5FSgv4rohvZ8zGneTxOpPEnmVuaNtghDBlH7R1rhZ1bWEcjUTEehctN1DurojpvZ8zFrc5hAfejrZYHZ4ZZInbs0b3MdbldpBWHFS4NXNoycdC5q8cq5mlktVVSNO9r5pHtPi1ziCtVTgndJdEZdST7T77J4G7EKyGlbez3dsj4Y26vdfgcoIHeWjisVaipwcjNKOaR1TBC2NrWMAa1oAaBuAAsAO4AKgbbd2WBofpvx/2isbSMPYpx2uRleAXdxytyjuJeFbYGnlhm5kTES42NbqaRggCAIAgCAIDK7KVpp66mmBtlmiJ+kvAf8Awlw81zqxzU5LwOlJ2kjq9UBYHJm0kvWVlU/5qid33pXH+q9BSVoR8l8ivqe8zHLc5hAEAQBAEAQBAEAQBAEAQBAEAQG5Ogikp42TVLpoevecgZnb1jImm5Jbe4zuHmI2qtx0pNqNuBMoRSVyc7YbbUuGwucZI3zWPVwtcC5zuFwNWsvvcfK5sDFo4edR6cOZ1nNRXE5mqJ3SPdJI4ue9znPcd7nOJLnHxJJV4kkrIr5O7ufNDAQBAEAQBAEBR+4+BWUZjqdL/wDF3e1UW6LG5zZM/M5zuZJ9TdXiVkVzd2eEMBAEAQBAEAQBAEAQBAEAQBAEAQAi+9DKdgBbchi9wgCAIAgCAIAgCAIDM/ps965bo770zb4gCRYaEjdyXht7PvPqfY1RpNXyroinVjkPRY3s+8+pncUu6uiHVjkPRN7PvPqNxS7q6IdWOQ9Fne1O8+o3FLuroh1Y5D0Te1O8+o3FLuroh1Y5D0Tez7z6mNxS7q6Ir1Y5BN7PvPqxuKXdXRDqhyHom9n3n1G4pd1dEOrHIeib2fefUbil3V0RXqhyHom9n3n1Y3FLuroh1Y5D0Tez7z6sxuKXdXRDqhyHom9n3n1Y3FLuroh1Q5D0Tez7z6sbml3V0RXqhyHom9n3n1Zjc0u6uiHVDkPRN7U7z6jc0u6uiK9UOQ9E3s+8+o3NLuroh1Q5D0Wd7PvPqNzS7q6IdUOQ9E3s+8+pjc0u6uiK9SOQ9E3s+8+rG5pd1dEV6kch6JvZ959RuaXdXRDqRyHom9nzfVjc0u6uiK9SOQ9E3k+b6mNzS7q6Ir1I5D0TeT7z6sxuaXdXRDqW8h6JvJ959WNzT7q6Ir1LflHom8nzfVjc0+6uiK9S3kPRZ3k+b6mNzT7q6IdQ35R6JvJ831Y3NLuroivUN+UeibyfefUxuqfdXRFz+jhyHp/+LfNU7z6s4/5XdXRHwxWLJUTM+WWUej3D+i4zVpNeLJeGnmoU5c4xfoi1stTuVsgFkMCyArZBcWQXFkMXK2QXFkFytkMXGVBcrlQXK5VkxcZUFyuVDFyuVBcrlQXGVDFyuVDFyuVZFyuVDFyuVLC5XKhi4yoLlciyYuVyJYxcPFgT3IZT4m0v+Gv3B6BWO48DxP8AiXia723puqr6gWsC4OHfna1xPqSoOIjaoz1mx6u8wVN8lbo2vlYwllxLK4sguVshi5XKguMqC5XKsmLjKguVyoYuVyoLlcqC4yoYuVyrJi5XKguVyoYuVyoLlcqGLjKguesqyYuMiGLlciC5XIhi5XIs2MXPWRBcrkQxcrkQxcrkQZi6wyl6yaKO180jAfAuAP4XW8I3kkcMRV3dGc+Sb9Dditz50av6VqLLURTC9nxlp5Xjdf1Ik/hVdjI+0mez/TVe9CdLk79V/XqQjKoZ6O5XKguVyoYuMqC5XKsmLlcqC5XKhi5XKguVyoYuVyoLlcqyYuMiWMXPWRBcqGIYuVDFkxcrkQXK5EMXJNsrss2tjfI+RzcrsoDQN4aHEm/1DTuUijQU022U20tqywtSMIxTur8fO30I0xtwCo5cN2Z6yLNjGY9BiWMZioYljGYqGLNjGYqI0sYzHoMQZivVpYxmJBsPR56truEbXO/DKPxdfyUjDxvPyKrbFbJhWu80vr9DZqsDxxGOkTD+uonOA7UREg8BcP8AINc4+QUfFQzU/IudhYjdYtRekvZ+3qkvialyqrPdXK5UMXK5UFyXbF7Lx1DHVNT+yaSA2+UOyi7nOcNQ0eW48N8uhQjJZpaFBtbalShNUaHvPt1tfRJc/wA1Mi/HcIacraNrx8wp47H75DvULfe0Fwy+hEWB2tJXdZp8s8vpdFrjM2ESwvdEzJMGnqw1kjO0R2bgDIRff3LWboOLa1O2FhtWnWiqjvC/G7T4dviYzYiijmq2slY17crzlcLi4GmhXPDxUp2ZN2xWnSwrlTbTuuKJLiWzdDTzPqaktZEcvVwtuASAMxs3U6/CNBqTv0kSo04ycpacinw+0sZXpRo0FeXG8nbnw14fF8eWnH5w4xhDzkNKxg+YwMt43bdw8VhVKD4ZfQ2ng9qxWZVW/BSf1siz2p2RZHH7TSG8dszm3zANPxsdxbxN76a3WtbDpLNDQkbN2vOpU3GI97RPTjya5/8AFiJRwlxDWgkkgADeSTYAeaipXL6U1FNvRE8o9maShiE1c4Od8puWA/K1o1efG+69gpsaMKazTPMVdp4rF1HTwisufb5t9n4rsozF8JechpWsHzdSwDyLO0E3lB8LegeD2pBZlVbfLM/rwLLaXZNkcftNKc0Vrlt81m/Mx3FvjfndaVaCSzQ0JGz9rznPc4hWlpfTjya7H/xYweAU7X1MLHgOaXtBB3EciuNJJzSZZ42pKOHnKLs0mTPF9kIXzteA2GBrLyFtm3IJ3cG6bz4eIlzw8XK+iPO4Xa9WFFxd5zb4X4/2/BFpWzYUyJ8cTGuflcGnI9xzEGxD3DnxutZOik0kSKMNpzqRnNtK6vxS4eS+Re9HItTS3/xT/wDGxbYX3X5kfbzvXh/t+rLdtXhFtIh/pvWuahyOro7V73qiOYyIZZ7UrLMOVrRa13HkDu1IC4VMrl7Bb4R1adG+IfHi35Eq/RFFh8bXVLRI93MZsxG8NYdABzPMaqTu6dNe1xKP93jMbUaovKlydreb1v5dD5NxfDH6OpWt7+pZ/suVhVKL7PQ6PCbSjxVS/wD7P68DA7QR0udvsl8pBze/a99LZ9ea4VVC/sFngZYrK/3GvZp9DFiNc7E3MehGljGYqI1mxjMTnYGiyxPmPxusPpZf/cXDyUzDRsmzzW2q2apGnyXq/wCrEqUkpTzJGHAtcLgggjmDvCNXMxk4tNao0li2GmmnkgN+w4gE8WnVp8wR53VPOGSTifRsLiViKMaq7V69q6lrkWp3uVyIYuTfYnGYRC6jqCGhxdlLtGua/wB5hPA3v6qZh6kcuSR5va+CrOqsTR4tWvbVNaMrXdHx1dTzAjg14/3tvf7qSwndZij+oVpWh8V9n9yNYpgU9L+1jIHBw7TD5jd4GxUedKUNUXGHx9DEf6cuPLR9PsZTYBtq1v0P/JdcN/qEPbb/AOkfmiu3ri6scCSQ1rA0cACLm3mUxPGZjYqUcImu1u5Hsi4WLXMbA6O6gvhlgdq1hFgd2WQOu3wu1x+0VOwrvFxZ5bbtNQqwqx4N/NW4+q6GH2MoGivLTr1QlIvza4MB/iuuNCH+Z5XJ+1sQ3gk1/LL6q/0PntvUOlq3NPuxhrWjxaHOPiSf4QsYhtztyN9j01TwqktZcX1svzxMDkXEtMxOuj2cujlgdq1paQDutJmzDwu2/wBoqbhXdOJ5nbtNRqQqrV39LWfr6Edwmm6uuYwbmTFo+y4j+ijwVqiXiWuJqOeDlJ9sb9Vcz3SFUPvHCDZhBcRzINhfuH/e4LviW+CKzYdKNpVO3ReBDhGolj0GYnmwLbU8n+Yf5GKbhvdZ5jbbvXh/t+rIKyPQeChWPTOXEqyqZE5ry9gLXAi5A1aQf6LOZRdzDpSqxcbPirdSdulo8Yjb1cwztvYAgvbe1wW8RoNRy3qZenXXB8TzKjitlzeeHsvo+Vnz/LGGxDZGojBMeWbuBDHHycbfiuUsPJacSwobYoVHad4+q9OPoQfEMZfA8xPgcx7d4ebEeVlDlUcXZo9JQwcK0FOM00+RYP2hlO4MHkT+ZWm+kSls6ktWy2fjE5/vD5AD8gtd5LmdVg6K/ieKYTVEjIWuc5z3BoBcTcuNhdYWaTsjapuqEHUaSSV9OR0ThNA2mhjgZ7sbWtB4mw1J7ybnzV9CKhFRXYfKMTXlXrSqy1k7/nkXa2OAQEL6RMIztbVNGrey/wCknsnyJt9ruUTFU7rMj0Gw8Xkk6EtHxXn29V8vEgYjUKx6fOV6tLGMx66rS/DnwWbGM/Gxc0VXLD+ykezua4geY3HzW0ZOOjONWlSq/wCpFPzX1Ng7M1b66leKkBwuWF1rZxYa8rgneOXcp1KTqQeY8rtClHCYiLoO3bbl+eJGNhWWq2/S/wDJRsP75dbYlfCvzRc7dYa8Tme12ODRcbgQLWPLh6rbEQebN2HHY2Jg6O6v7Sv8SMiNR7FvnNgbLUXsVM+aYZS7tEHeGtHZBHzG50/eA3qdRju4Ns8vtGv+7xEadPjbh8Xr8PsRzZit6qrEj7DrMzXHgM5v6ZgFwoytO77S22jR3mFcI/xs18P6uXu22FObKagC7HgZj8rgA3XkCANed1tiKdnmI+yMXGVPcvVaeK1/PAir542+89g8XBRm0u0u1CctE+hPdmoBQ0slVP2ARmdfQhjAcoIPxEk6b9QN6m0lu4OUjzGPqPGYiNClxtwXm9fh4/QhOAY9HNXRWDsz5Qb2AF3Ek8b/AIKJTqqVReZ6LG4GdLBzu1ZRMt0q4mYJoQGg3Y7ed1nLrjJ5ZIg/pvDKtSnd2s18iAv2gmO7IPAH+pUHeyPTrAUlrdmzuiaqdLSTZ3Xd1p5DQxstu81Y4KTcHfmeO/UtKNPEwyrhl+rNQTvkuWyF9wbEOJuCN4IO4qqd+095BQteCXwPksHS56c0sOt2kW5gjiFnQ1UlJcOKJDge2NdTvaGSySgkDq33kzX0yi93D7JXeniKkXwdyqxmx8FXg3KCi+a4W8eXUmvTJSMNPDOQBIJMl+OVzXOIPOxaPC55qXjorKpdp539K1ZqvUpX9m1/iml8n+WNTqsPc3CC5sXoiwHPK6teOzHdsfe8jtO8gbfa7lPwVK7zs8n+p8flprDRfF8X5di+L+XibZVmeHCAIDxNE17SxwBa4EEHcQdCFhq/Bm0ZOMlKOqNV4zhJpZXRm5G9h5tO4+PA94VdUp5ZWPZ4XFqvSU1r2+ZZCNa2JGYkmAbRClj6l0WZtybg2OvMEWPqu9OrlVrFTjdnvEVN4pWZfux3Dz2nUuvfFET63W+8pd30RFWCxy4Kr/8AUvsY/G9to3MMMRZE0ixJc3Nl5NaPd8dfJaVMQrWXAlYTY01PeVLyfk7X8W9Sz2Er4n1jWMdc5H7gbbudrLTDyTqWRI2xRqRwrlJcLov9o9uPYK2SB0bpGWYS3QWu0Xyk/kR6Lerid3UcWrkXA7F/eYWNSMsr48fj2/ct4ukTDWdtlJI1/dFE0/eDlhYukuKXojrL9P7Qn7Mqqa/3SfpYi20u31RWHKwNiiG5vvEnm4nQ+FreO9RquKlPTgi5wGwqGGV5PNLnp0RHJMTmdvkd5dn8rLg5yfaW0cPSjpFEy2a6SJIGCGqYZmAWDwf1gFtzr6P4DWx5kqVSxbirSVygx/6dp1ZOpQllfLs+HL1+BlYtu8KiPWRUTmya2IhhYfvB111WJorio+iIUth7SqLJUrXj4yk/SxEtrNsp8R7BAjiBuI2km55vdpmPkB3cVFrYiVXhoi82bsejgvaXtS5v6Ls+Zitn65tNVQzuBLY3hxAtcgcrrnTlkmpMm42i6+HnSi7Nq3EzG320seIyxviY9rWMI7dsxJNzo0kW3cV1xNZVWmiBsXZ08DTlGo023fhp62Iuo5c3M/sdtPJhspcG543gCRm4m17OaeDhc9xBPcR2oVnSdyr2ps2GOpqLdpLR/R+DJpLt7hTnda6ie6XfmMMJdcDQ5y6/mpbxVFu+Xj5I8/HYW0ox3arJR5ZpW6WIrtRtcK2phqGwBghIsCbl4Dw4B1hoNN2u8qNVr55KVtC62dsp4XD1KTnfP6cLcPxaEpb0l0k7ctVRuPcBHK3+PKpP7yEl7cfqUz/TeKpSvh6y9Yv0uI9vMLgOenonNfbQthhj8swNx6IsTRjxjH0QlsPaVX2a1a68ZSfpYhO1m00uJSB7wGMbcMYDcNvvJPFxsNdN25Q61Z1Xdnodm7NpYGDjDi3q+f2Rg1yLK5eYPhklXMyniHaebdzRxce4C58ltCDnJRRHxWKhhqUqs9F6+HxOhcIw5lJCynj91jQBzJ4uPeTcnvKu4QUIqKPl2JxE8RVlVnq3+L4aF4tzgEAQBAYfafCTVQkMyiVoJjLt1/ldbWx3eh4LlVhnjw1JuAxSw9VOXuvW3z80aSq8XqWOdG60bmkhwy6gjeDmuqpzknY+g08LQlFSjxT04/axZSYjM7fK/wAjl/lstM0uZ3jQpLSK/PMt3uLveJPiSfzWp1VloebJYzmJFsFi0VHWCaYkMyPFwC7U2toNV3w81Cd2Ve2MNUxOGdOmru6fI+e2+Kx1lbJPDcsIYASLE5WgE2Oo1WK81ObaN9k4aphsLGlU14+rMCuNixuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC5UBLC5uro62V9hi66Ufr5BrzjZvDPHie+w4XVrhqG7V3qzwO29qfu6m7pv2I+r5/b+yYqUUQQBAEAQBAQbpD2N9raamnb+vaO00f3rRuH1gbjxGnK0TE4fP7Udfmeg2Ltb9u9zVfsPT/wAX9n29eZp8i2h0PEcRZVlj297lEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFzZ/RvsXly1tS3XQwxkbuUjhz5Dhv32tPw2H/nL4Hk9t7XvfD0Xw/k/ovr05my1PPKBAEAQBAEAQBAQXbvYYVV6mmAbPvc3QNl/oH9+48eYiV8Pn9qOvzL/ZO2Xh7Uq3GHY+7/AF8uzkailicxxa5pa4EhzSCHAjeCDqCq5q2p7OM1JJxd0zysGbhBcILhBcILhBcILhBcILhBcILhBcILhBcILhBcWQXNnbB7BWy1VY3XQxwkbuTpBz5N4cddBPw+G/lPoeV2ttu96OHfnL6L79OHF7LU48sEAQBAEAQBAEAQBARra3Y6HEBm/ZzAdmQDf3PHxD8RwPPhVoRqce0s9n7Uq4R21jy+3L5GnscwKehf1c7LX91w1jf9LuPgbHuVdOnKDtI9nhcbRxMc1N+a7V5r8RjVoSbhBcILhBcILhBcILhBcILhBcILhBcILhBcvMLwyaqkEUEbnu7twHNx3NHeVtGDk7I418TToQz1HZfmnM23sdsJFRWmmIln4H4Iz+4DvP7x15W1VhRw6hxfFnj9o7YqYm8IezD1fn9vmTFSSmCAIAgCAIAgCAIAgCAID4VtHHOwxysa9h3tcAQfXj3rEoqSszenVnTkpwdmu1GudoujK130T/8AlPP4MkP5O+8odTCdsD0mE2//ABxC+K+q+3Q19iFBLTv6ueN8buTha/e07nDvFwocouLsz0FKvTqxzU2mvD84fEt1g6XCC4QXCC4QXCC4QXCC4QXCC59KanfK8Rxsc953NaC53jYcO9ZSbdkazqRhHNN2XNk72e6NJZLPrHdU3/DaQZD9TtWt8rnwUqnhW/eKHF7ehD2aCu+b06av0+JsvCsLhpGdVBG2NvIbyebidXHvOqmxhGKsjzVfEVa8s9SV3+aci8WxxCAIAgCAIAgCAIAgCAIAgCAID4VtHHOwxyxskYd7XNDh6FYcVJWZvTqzpyzQbT8CHYt0ZUst3QPfA7l+0j+645vIOAUeWFi9OBcUNu14cKiUvR9V9iI4j0cV0VzGI5hwyuyu82vsB94qPLDTWnEtqW28NP3rx81ddV9iP1mCVUJtJTzt7zG4t+8Bl/FcXTktUWFPFUKnuTT+K+Wpjs45j1WpIsz0hgIDyXgbyPVDNmXtJhVRNbqoJn33FsbiPvAWWyhJ6I4VMRSp+/NLzaJBh/R5Xy+8xkQ5yPF7cwGZj5Gy6xw034ECrtnCw0bl5L72+pK8K6L4GWNRK+U/K39WzzsS4+Tgu8cJFe87lVX29VlwpRUfPi/t6E0w3DIaZuSCJkbeIaALnm47ye8qTGEY8EimrV6laWapJt+JdrY5BAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEBGtqv6LjULDBGoMV3qvkevoaHyw73liJtW0Nr7H/B4D8lPpHlcfqyZKQVAQBAEAQBAEAQBAEAQBAEB//9k=</t>
+  </si>
+  <si>
+    <t>https://off1.dunyapurkaraja.com:1686/hls/willowusa.m3u8?md5=1RVIaQIwHsx4YUBN1YJmSw&amp;expires=1742190994</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,21 +458,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/channels.xlsx
+++ b/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Eshwar Reddy\Desktop\TVapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E44E63-B34C-4324-B19C-A927AF9951C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D862C7-2662-4171-9272-25B109129DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{992D5F35-52F0-4162-A3CE-20905C51C6A9}"/>
   </bookViews>
@@ -56,13 +56,13 @@
     <t>Sky sports</t>
   </si>
   <si>
-    <t>https://off1.dunyapurkaraja.com:1686/hls/skyscric.m3u8?md5=Rhh8Dbao2x6S6K9HctQhLg&amp;expires=1742190368</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIPERUQERISFRUXGBUaFhcYFxgXFRcYFRcXGhgXFxgYHSggGRslHhUXITIhJykrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLy0tLS8tLS8tLS0tLy0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEEBQcIAgP/xABIEAABAwIDBAcFBAcGBAcAAAABAAIDBBEFEiEGMUFRBxMiYXGBkRQyQlJygpKhsRUjM2KissEIQ1Nzk8IWg9HwFyREY7PT4f/EABsBAQACAwEBAAAAAAAAAAAAAAAEBQECAwYH/8QAOhEAAgECAwUFBwQABQUAAAAAAAECAxEEEjEFEyFRkUFSYXGhIjKBscHR8AYUQuEVIzNy8SRDYoKi/9oADAMBAAIRAxEAPwDeKAIAgCAIAgCAICjjYXO5ARHHOknDaS7TN1zx8EI6w94zXDAe4uBUulga1Tst5/lznKrGOrILi3TVM64paWNg4OlcXk+LGZQD9oqdT2XH+cun59DhLFLsRFq/pIxSYm9UWA/DGxjAPAhub8VKjgaEf438zk8RNmDmx6rf79XVO+qaQ/m5d1RprSK6I03s+ZYvlc73nOPiSfzXRJLQ0bb1DJC3cSPA2SyYTa0LyHGqqP3KqpZbdlmkb+Tlo6VN6xXRGyqzXaZmh6QsUhtlrJHAcJAyS/iXtLvxuuMsFQl/H6G6xE0SjC+mipZpUU0MovvjLonW884J9FFnsuD9yTXr9jrHFc0TjBOlPDqmzXyOp3HhMA1v+oCWAeJCg1MBWhor+X21O8a0JE0hla9oc1wc06ggggjmCN6htNcGdT2sAIAgCAIAgCAIAgCAIAgCAIAgPL3hoJJAAFyToABvJKA1xtZ0uU1PeOjaKmT572gafqGsn2dD8ysaGzpz4z4L1/r84HCpXjHQ1JtFtbWYgT7TM4s/wm9mIcuwNHW5uue9W1LD06XuL49pEnWlIwi7HIIAgCAIAgCAIAgCAyeBbQ1VA7NSzPj1uWg3jcf3mG7SdLXtdc6tGFVWmrnSNWUdDa2ynTDHIRHXxiJ27rYwTEfqZq5niMw8FVV9mtcabv4dpLhiE+DNo0tSyZjZI3texwu1zSHNcOYI0IVY04uzJB9VgBAEAQBAEAQBAEAQBAEBgtq9q6bDI+snd2jfJG3WSQj5RwHNxsBca6hdqGHnWdo9TWU1FXZoTbHbmqxQlsh6uC/ZgYezpuLzoZDu36aaAK9w+FhR04vn+aEGpWcuHYRhSTiEAQBAEAQBAEAQBAEAQBAEBnNltrKrDH5qd/YJu+J2sT/FvA/vCx0G8aLjXw8KytJfHtOlOq4G+tituabFW2YernAu+Fx7Q5uYfjb3jUaXAuFRYjCzovjxXMnQqRnoSlRjoEAQBAEAQBAEAQBAQrpC2/iwtvVR5ZKpw7LPhYDufLbhybvPcNRMwuEdZ3fCP5ocqlRQRz9ieJS1Urp55HSSO3ud+AAGgA4AaBXsIRgssVZECU3J3ZarY1CAIAgCAIDLYNs1WVoJpqaSQDQuADWX5Z3ENv3XXKpXp0/edjpGlKWh5x3Z+qoHNbVQmIvBLQXMdcNtexY4jiFmnWhU4wdzE6coamLXQ0CAIAgCAIAgCA+tNUPie2SNzmPabtc02c0jiCNyw0pKzMqTTujenRt0kNrstLVlrKnc1+gZPbkNzZObdx3jkKXF4Ld+3DT5f0TqVXOrPU2Oq87hAEAQBAEAQBAQrpJ25bhcXVx5XVUg7DTqGN3da8crg2HEg8AbS8JhXWd37q/LHOpUUEc8VNQ+V7pJHOe9xJc5xu5xO8kq+SSVkV0m5O7PmsmAgCAIAgCA8yGwJ7isozFXZ1vhWHx0sMdPEA1kbWtaO4DeeZO8niSV5ac3OTk9WWiVuBqH+0B+2pPom/mjVrsz3ZfD6kbE6I1QrMhhAEAQBAEAQBAEBUG2oJBGoI0II3EHgUMrgb26K+kD20CjqnD2ho7Dz/ftaNf+YALkcQL8DalxmE3ftw0+X9E+lVzKz1NkqvOwQBAEAQBAYLbPaWPC6V1Q/tO92Jl7GSQjRvcNCSeAB37l2oUXVnlXxNZyUVdnMuKYjLVTPqJnZpJDdx/AADgAAABwAC9DCEYRUY6IrZSzO5arY1CAID70VHJO8RQxvkedzWNLnHvsOHfwWJSUVds2jFy0JnQ9E2KSgEshivwklF/H9WHqJLH0VzfkjusNLtLv/wAGcR/xaL/Ul/8ApWn+I0uT9PuZ/bPmfCbohxNu4UzvplOv3mhbLaFHx6GHhpcyEY1h8tLJJTzNyyM0c24NiWgjVpIOhCmU5qaUo6HLK4ySZ10vLlkaW/tA/tqT6Jv5o1bbM92Xw+pFxOiNTqzIZdYZhs1VIIaeN0kjtzWjWw3knc0ajUkDVaznGCvJ2RvGDk7InEHQ5iTmgl1Iw/K6R+YeOSMj0JUN7Ro+PT+zusM+ZGNqdlqnC5Gx1LW9sEscwlzHWNiASAbi4uLfEOak0a8KqvE5VKThqYRdTkEBltndm6rEXmOliL7WzO0axgO7M46Dw3mxsDZc6taFJXkzpCm56GfxXouxGmhfO8QOYxpc/LKLta0Xc45w0WABO/guEMdSnJRV+h0eHkkQpSyOEB7gmdG5r2OLXNIc1wNi1zTcEHgQRdGk1ZmU7O50h0b7YNxSmu+wqI7CZo3G/uyNHyusdOBBHInz+Kw+5nw0ehY0551clyjHQIAgCA8veGgkkAAXJOgAG8koDmjpE2qOKVZkaT1Ed2QDd2dMzyObyAfANHBegwtDcwt2vX88CBWqZnw0IupBwCAICrWkkBoJJ0AGpJO4DvS5lK503sLslFhdO2NoBmcAZpPie7kDwY25AHnvJJ89iK8q0r9nYiyhBRVkSOSQNF3EAcybD8VwNz4trYjukjPg4f8AVZyvkLlaysjgYZZZGMYBcuc4NaB4lIxcnZIHLW2uKtraypqWA5ZHuLb7y1rQ1pIO4lrQbcL2Xo8PBwhGL7CvnLNUudWLzZYGlv7QP7ak+ib+aNW2zfdl8PqRcTojWeD4XLWTMp4GZ5HmwHAc3OPBoGpKsJ1IwjmloRoQcnZHSWxGyMOFQdWyzpHWM0tu09w4DkwXNm8Nd5JJoMRXlWld6diLCEFFWRI1wNyN7f7MNxSjdDoJW9uFx0tIAbAn5XC7T433gLvhq+6nfs7TScFJWOZJY3McWOBa5pIc0ixa5psQRwIIIXoU78UVrVnYo1pcQGgkkgADUkncAOJKXCV3Y6k2LwBuHUcVM0DMAHSuHxyuAzuvx10HcAOC87XqurNyLOEVFWRD+nHH+ppWUbDZ9QbvtvEUZBO7dmdlHeA8KVs+lmnnfZ8zlXnaNjRSuCAEAQGX2Ux+TDaqOqj1y6Pb88brZ2edgRyIaeC5VqSqwcX+M6U55Hc6hw6ujqYmTxOzMkaHNPMOFxpwPdwXnpRcZOL1RYp3Vy5WpkIAgNa9Nm03s1MKKM/rKgHPbe2EaO++ez3gPU/AUc0870XzONaeVWNDq5IAQBAEBd4RUNiqIZX+6yWJ7vpY9rnfgCtJpuLS5M3pu0kdbNcCLjUcF5osjXnSV0dy4rKyeKpa0sZlEUgJjvcnM0tvlJuAeyb5RyU7C4tUVla+JyqU3LRmtcQ6J8Ti3QRzDnHIw/hJlJ8gp8cfSfbbz/q5wdGa0ZFcSweakcG1EEkLtbZ2Ft7b8pIs4d4upMaimrxdzlJTWpZy+6fA/ktlqax95HYi8uWZpzp0o5J6qhhhY58j2zNY0byS6P05knQAEnQK02fJRhNvTgR68XKyRNujzYqPCoO1lfUPA62Qbh/7bL65B+J1NtAImJxDrS8Ow6U6agjN7Q43DQQOqah1mN3Ae89x3MYOLj/1JsASuVOnKpLLE2lJRV2aYwPpTn/SftFS7LTSWjdEDdkLL9h45uaTdzt5Bdp7oFpUwUd1ljqu3mRoV25cdDfDXAi41B3KnJZpPpu2U6qQYlE3sSENnA3NktZj+4OAsf3gOLlbYCvdbt9mhFxFP+SMJ0O4D7XiDZXC8dMBI7l1l7RDxuC8f5a7Y6rkpW7X+P8APE0w8Lu50OTbUqjJpy7t1j5xGulqAexfJF/lMuGkfVq+3AvK9Dh6W6pqPXz/ADgV9aeaRgF3OQQBAEBt/oL2m1fhsh+aSC/rJGPXOB9aq9oUf+4vJ/QmYed1lZuNVZJCAo51tToEBy1trjxxGtmqbksJyxd0TNGaHdcdojm4r0NCnu6aj+XK+rLNIwa6nIIAgCAJcG0+jzpTFLG2krg50bAGxytGZzGjc17Rq5oGgIubWFjvVficHneaGvIl0q6taRtTDdrqCpsIayncTub1jWv+46zh6KulQqR1iyQpJ6GaBXI2LfEKCKpjdFNGyRjt7XAEH14962jJxd4sw1c5v6Ttk/0VUljCTDI1z4iTcgDR0ZO8lptryc3ebq8wlfexu9VqQ6lPLNNHTKoSaQjaraGOgxSi65rMksc0ZkO+Il8WVwPBpNg7uIPBSqVJ1KUrdlviaSkotXJuopuaT6eMPqRNDUOe51MRkY34YpNS4EcS4C4O/skcBe12fOGVx7foRcQnr2GqVYkQ3l0K7W9fD+j5nfrIW3iJ+KEWGXxZcD6S3kSqnHUMst4tHr5k6jUzKzNjYph8dVDJTzNzRyNLXDuPI8CN4PAgKDGTjJSXYdmr8CP9Heyf6KpnROcHyPke5zxxaDlj8OwGkjgXOXbE199O5rCCirFj0v7Q+xYe6NhtLUXiZzDSP1ruejezcbi9q3wdLPUu9FxMVZ5YnOqu7lcEAQBAEBeYRiT6SeKpi9+J4cOF7b2nucLtPcStZxU4uL7TeEssrnVuG1zKmGOeI3ZIxr2n914BFxwOu5edlFxk4vsLJO5crUEP6V8Z9jwyYtNny2hZzvJfNbkQwPI7wpOEp56q8OJpUlli2c2K8K0IAgCAIAgJBgGxdfXs62mp3OjuRnLmMaSNDlLyM2ulxcXBC41MRTpu0mdY0ZSV0X0vRjiw/wDRkjulgP4dZdarGUe96M23Ey8wTY7Hqd7RTRzwajUTMZGNd7mh9nDmLG/IrSpiMPJe00/gbxp1U9ToWAODWh5BdYZiNATbUjuuqV+BLNQf2iXty0jfitUHwbaK/qbeis9m6y+BwrdnmbjVYdzSn9oP9tSfRN/NGrTZ3uy+BGxOiJV0P7Xe3U3s0zrzwAC5OskW5r9d5Huu3/CT7yj4yhklmWjOlGeZEyx3CYq2nkpphdkjbHmDva5v7wIBHeFGpzcJKSOjV1Y5c2gwaWgqJKWYdphtfg9p1a9vcRr3bt4Kv6dRVIqSK6cMrsfHCsSkpJo6iF2WSNwc08ORB5tIJBHIlZnFTi4vRmISyu51JszjkeIU0dVFueNW8WOGjmHvBuO/Q7iqCrTdOTiyyjJSV0ZRczJzh0s7Qe3Yg9rTeKC8TORLT+sd5u0vxDGlXeDpZKfi+JBrzvKxC1KOAQBAEAQBAb76DMZ66hfTON3U77Dn1ct3Nv8Aa6weDQqjHwy1M3Mn0JXibIUE7GlOn7E801NSA6MY6Vw4EyHKw+IDH/eVps+HsuXwI2IfBI1OrAiBAEAQBAUedCsmVqda4DSshpYIoxZjIo2t8A0evivOTk5SbZZIv1qZCAw20W1FJhzM9TMxht2WXvK/6WDU7xruF9SF0p0Z1HaKNXJLU5x272nfilQ+oeMrQ3LEy98jBci/NxJJJ77bgFd4ekqUcqIc55po6nVATjRfT1iEclXBCxwc+KN/WAG+UyFpa08nWbe3IjmrbARag2+0i4hrgiBbOY1JQVMdVD7zDq29g9p0cx3cR6Gx4KXUpqpFxZwpzyu50/s/jkFfC2op3hzTvHxMdxY8fC4cvPdYqhqU5U5ZZFhGSkroiPS7sf7fT+0wtvUQAkADWSPe6PTeRq5vfcfEpODr7uWV6M51aeZeJz4CrggHQHQjgz6egMzy7/zD87W3NgwDK11t13WvfiMnJU+OqKVSy7CfRjaJn+kPaD9HUEs4NpCOrh59Y+4BHPKMz7cmFccPS3lRLs7TecssbnMAV9crQgCAIAgCAICf9CWJ9TiQhJ7M8b2W4F7B1jT5Bjx9pQ8dDNSvyJGHfGx0IqcmHNPSvWmbFqk3uGFkbe4MY24+8X+qu8JG1JEGu7yIipBxCAIAgCAID701ZJF+ykkj+h7m/wApWHFPVGynJdpeM2irW+7W1g8KiYfk5a7qD/iuiNt7PmUk2grH+9WVbvGeU/m5FSgv4rohvZ8zGneTxOpPEnmVuaNtghDBlH7R1rhZ1bWEcjUTEehctN1DurojpvZ8zFrc5hAfejrZYHZ4ZZInbs0b3MdbldpBWHFS4NXNoycdC5q8cq5mlktVVSNO9r5pHtPi1ziCtVTgndJdEZdST7T77J4G7EKyGlbez3dsj4Y26vdfgcoIHeWjisVaipwcjNKOaR1TBC2NrWMAa1oAaBuAAsAO4AKgbbd2WBofpvx/2isbSMPYpx2uRleAXdxytyjuJeFbYGnlhm5kTES42NbqaRggCAIAgCAIDK7KVpp66mmBtlmiJ+kvAf8Awlw81zqxzU5LwOlJ2kjq9UBYHJm0kvWVlU/5qid33pXH+q9BSVoR8l8ivqe8zHLc5hAEAQBAEAQBAEAQBAEAQBAEAQG5Ogikp42TVLpoevecgZnb1jImm5Jbe4zuHmI2qtx0pNqNuBMoRSVyc7YbbUuGwucZI3zWPVwtcC5zuFwNWsvvcfK5sDFo4edR6cOZ1nNRXE5mqJ3SPdJI4ue9znPcd7nOJLnHxJJV4kkrIr5O7ufNDAQBAEAQBAEBR+4+BWUZjqdL/wDF3e1UW6LG5zZM/M5zuZJ9TdXiVkVzd2eEMBAEAQBAEAQBAEAQBAEAQBAEAQAi+9DKdgBbchi9wgCAIAgCAIAgCAIDM/ps965bo770zb4gCRYaEjdyXht7PvPqfY1RpNXyroinVjkPRY3s+8+pncUu6uiHVjkPRN7PvPqNxS7q6IdWOQ9Fne1O8+o3FLuroh1Y5D0Te1O8+o3FLuroh1Y5D0Tez7z6mNxS7q6Ir1Y5BN7PvPqxuKXdXRDqhyHom9n3n1G4pd1dEOrHIeib2fefUbil3V0RXqhyHom9n3n1Y3FLuroh1Y5D0Tez7z6sxuKXdXRDqhyHom9n3n1Y3FLuroh1Q5D0Tez7z6sbml3V0RXqhyHom9n3n1Zjc0u6uiHVDkPRN7U7z6jc0u6uiK9UOQ9E3s+8+o3NLuroh1Q5D0Wd7PvPqNzS7q6IdUOQ9E3s+8+pjc0u6uiK9SOQ9E3s+8+rG5pd1dEV6kch6JvZ959RuaXdXRDqRyHom9nzfVjc0u6uiK9SOQ9E3k+b6mNzS7q6Ir1I5D0TeT7z6sxuaXdXRDqW8h6JvJ959WNzT7q6Ir1LflHom8nzfVjc0+6uiK9S3kPRZ3k+b6mNzT7q6IdQ35R6JvJ831Y3NLuroivUN+UeibyfefUxuqfdXRFz+jhyHp/+LfNU7z6s4/5XdXRHwxWLJUTM+WWUej3D+i4zVpNeLJeGnmoU5c4xfoi1stTuVsgFkMCyArZBcWQXFkMXK2QXFkFytkMXGVBcrlQXK5VkxcZUFyuVDFyuVBcrlQXGVDFyuVDFyuVZFyuVDFyuVLC5XKhi4yoLlciyYuVyJYxcPFgT3IZT4m0v+Gv3B6BWO48DxP8AiXia723puqr6gWsC4OHfna1xPqSoOIjaoz1mx6u8wVN8lbo2vlYwllxLK4sguVshi5XKguMqC5XKsmLjKguVyoYuVyoLlcqC4yoYuVyrJi5XKguVyoYuVyoLlcqGLjKguesqyYuMiGLlciC5XIhi5XIs2MXPWRBcrkQxcrkQxcrkQZi6wyl6yaKO180jAfAuAP4XW8I3kkcMRV3dGc+Sb9Dditz50av6VqLLURTC9nxlp5Xjdf1Ik/hVdjI+0mez/TVe9CdLk79V/XqQjKoZ6O5XKguVyoYuMqC5XKsmLlcqC5XKhi5XKguVyoYuVyoLlcqyYuMiWMXPWRBcqGIYuVDFkxcrkQXK5EMXJNsrss2tjfI+RzcrsoDQN4aHEm/1DTuUijQU022U20tqywtSMIxTur8fO30I0xtwCo5cN2Z6yLNjGY9BiWMZioYljGYqGLNjGYqI0sYzHoMQZivVpYxmJBsPR56truEbXO/DKPxdfyUjDxvPyKrbFbJhWu80vr9DZqsDxxGOkTD+uonOA7UREg8BcP8AINc4+QUfFQzU/IudhYjdYtRekvZ+3qkvialyqrPdXK5UMXK5UFyXbF7Lx1DHVNT+yaSA2+UOyi7nOcNQ0eW48N8uhQjJZpaFBtbalShNUaHvPt1tfRJc/wA1Mi/HcIacraNrx8wp47H75DvULfe0Fwy+hEWB2tJXdZp8s8vpdFrjM2ESwvdEzJMGnqw1kjO0R2bgDIRff3LWboOLa1O2FhtWnWiqjvC/G7T4dviYzYiijmq2slY17crzlcLi4GmhXPDxUp2ZN2xWnSwrlTbTuuKJLiWzdDTzPqaktZEcvVwtuASAMxs3U6/CNBqTv0kSo04ycpacinw+0sZXpRo0FeXG8nbnw14fF8eWnH5w4xhDzkNKxg+YwMt43bdw8VhVKD4ZfQ2ng9qxWZVW/BSf1siz2p2RZHH7TSG8dszm3zANPxsdxbxN76a3WtbDpLNDQkbN2vOpU3GI97RPTjya5/8AFiJRwlxDWgkkgADeSTYAeaipXL6U1FNvRE8o9maShiE1c4Od8puWA/K1o1efG+69gpsaMKazTPMVdp4rF1HTwisufb5t9n4rsozF8JechpWsHzdSwDyLO0E3lB8LegeD2pBZlVbfLM/rwLLaXZNkcftNKc0Vrlt81m/Mx3FvjfndaVaCSzQ0JGz9rznPc4hWlpfTjya7H/xYweAU7X1MLHgOaXtBB3EciuNJJzSZZ42pKOHnKLs0mTPF9kIXzteA2GBrLyFtm3IJ3cG6bz4eIlzw8XK+iPO4Xa9WFFxd5zb4X4/2/BFpWzYUyJ8cTGuflcGnI9xzEGxD3DnxutZOik0kSKMNpzqRnNtK6vxS4eS+Re9HItTS3/xT/wDGxbYX3X5kfbzvXh/t+rLdtXhFtIh/pvWuahyOro7V73qiOYyIZZ7UrLMOVrRa13HkDu1IC4VMrl7Bb4R1adG+IfHi35Eq/RFFh8bXVLRI93MZsxG8NYdABzPMaqTu6dNe1xKP93jMbUaovKlydreb1v5dD5NxfDH6OpWt7+pZ/suVhVKL7PQ6PCbSjxVS/wD7P68DA7QR0udvsl8pBze/a99LZ9ea4VVC/sFngZYrK/3GvZp9DFiNc7E3MehGljGYqI1mxjMTnYGiyxPmPxusPpZf/cXDyUzDRsmzzW2q2apGnyXq/wCrEqUkpTzJGHAtcLgggjmDvCNXMxk4tNao0li2GmmnkgN+w4gE8WnVp8wR53VPOGSTifRsLiViKMaq7V69q6lrkWp3uVyIYuTfYnGYRC6jqCGhxdlLtGua/wB5hPA3v6qZh6kcuSR5va+CrOqsTR4tWvbVNaMrXdHx1dTzAjg14/3tvf7qSwndZij+oVpWh8V9n9yNYpgU9L+1jIHBw7TD5jd4GxUedKUNUXGHx9DEf6cuPLR9PsZTYBtq1v0P/JdcN/qEPbb/AOkfmiu3ri6scCSQ1rA0cACLm3mUxPGZjYqUcImu1u5Hsi4WLXMbA6O6gvhlgdq1hFgd2WQOu3wu1x+0VOwrvFxZ5bbtNQqwqx4N/NW4+q6GH2MoGivLTr1QlIvza4MB/iuuNCH+Z5XJ+1sQ3gk1/LL6q/0PntvUOlq3NPuxhrWjxaHOPiSf4QsYhtztyN9j01TwqktZcX1svzxMDkXEtMxOuj2cujlgdq1paQDutJmzDwu2/wBoqbhXdOJ5nbtNRqQqrV39LWfr6Edwmm6uuYwbmTFo+y4j+ijwVqiXiWuJqOeDlJ9sb9Vcz3SFUPvHCDZhBcRzINhfuH/e4LviW+CKzYdKNpVO3ReBDhGolj0GYnmwLbU8n+Yf5GKbhvdZ5jbbvXh/t+rIKyPQeChWPTOXEqyqZE5ry9gLXAi5A1aQf6LOZRdzDpSqxcbPirdSdulo8Yjb1cwztvYAgvbe1wW8RoNRy3qZenXXB8TzKjitlzeeHsvo+Vnz/LGGxDZGojBMeWbuBDHHycbfiuUsPJacSwobYoVHad4+q9OPoQfEMZfA8xPgcx7d4ebEeVlDlUcXZo9JQwcK0FOM00+RYP2hlO4MHkT+ZWm+kSls6ktWy2fjE5/vD5AD8gtd5LmdVg6K/ieKYTVEjIWuc5z3BoBcTcuNhdYWaTsjapuqEHUaSSV9OR0ThNA2mhjgZ7sbWtB4mw1J7ybnzV9CKhFRXYfKMTXlXrSqy1k7/nkXa2OAQEL6RMIztbVNGrey/wCknsnyJt9ruUTFU7rMj0Gw8Xkk6EtHxXn29V8vEgYjUKx6fOV6tLGMx66rS/DnwWbGM/Gxc0VXLD+ykezua4geY3HzW0ZOOjONWlSq/wCpFPzX1Ng7M1b66leKkBwuWF1rZxYa8rgneOXcp1KTqQeY8rtClHCYiLoO3bbl+eJGNhWWq2/S/wDJRsP75dbYlfCvzRc7dYa8Tme12ODRcbgQLWPLh6rbEQebN2HHY2Jg6O6v7Sv8SMiNR7FvnNgbLUXsVM+aYZS7tEHeGtHZBHzG50/eA3qdRju4Ns8vtGv+7xEadPjbh8Xr8PsRzZit6qrEj7DrMzXHgM5v6ZgFwoytO77S22jR3mFcI/xs18P6uXu22FObKagC7HgZj8rgA3XkCANed1tiKdnmI+yMXGVPcvVaeK1/PAir542+89g8XBRm0u0u1CctE+hPdmoBQ0slVP2ARmdfQhjAcoIPxEk6b9QN6m0lu4OUjzGPqPGYiNClxtwXm9fh4/QhOAY9HNXRWDsz5Qb2AF3Ek8b/AIKJTqqVReZ6LG4GdLBzu1ZRMt0q4mYJoQGg3Y7ed1nLrjJ5ZIg/pvDKtSnd2s18iAv2gmO7IPAH+pUHeyPTrAUlrdmzuiaqdLSTZ3Xd1p5DQxstu81Y4KTcHfmeO/UtKNPEwyrhl+rNQTvkuWyF9wbEOJuCN4IO4qqd+095BQteCXwPksHS56c0sOt2kW5gjiFnQ1UlJcOKJDge2NdTvaGSySgkDq33kzX0yi93D7JXeniKkXwdyqxmx8FXg3KCi+a4W8eXUmvTJSMNPDOQBIJMl+OVzXOIPOxaPC55qXjorKpdp539K1ZqvUpX9m1/iml8n+WNTqsPc3CC5sXoiwHPK6teOzHdsfe8jtO8gbfa7lPwVK7zs8n+p8flprDRfF8X5di+L+XibZVmeHCAIDxNE17SxwBa4EEHcQdCFhq/Bm0ZOMlKOqNV4zhJpZXRm5G9h5tO4+PA94VdUp5ZWPZ4XFqvSU1r2+ZZCNa2JGYkmAbRClj6l0WZtybg2OvMEWPqu9OrlVrFTjdnvEVN4pWZfux3Dz2nUuvfFET63W+8pd30RFWCxy4Kr/8AUvsY/G9to3MMMRZE0ixJc3Nl5NaPd8dfJaVMQrWXAlYTY01PeVLyfk7X8W9Sz2Er4n1jWMdc5H7gbbudrLTDyTqWRI2xRqRwrlJcLov9o9uPYK2SB0bpGWYS3QWu0Xyk/kR6Lerid3UcWrkXA7F/eYWNSMsr48fj2/ct4ukTDWdtlJI1/dFE0/eDlhYukuKXojrL9P7Qn7Mqqa/3SfpYi20u31RWHKwNiiG5vvEnm4nQ+FreO9RquKlPTgi5wGwqGGV5PNLnp0RHJMTmdvkd5dn8rLg5yfaW0cPSjpFEy2a6SJIGCGqYZmAWDwf1gFtzr6P4DWx5kqVSxbirSVygx/6dp1ZOpQllfLs+HL1+BlYtu8KiPWRUTmya2IhhYfvB111WJorio+iIUth7SqLJUrXj4yk/SxEtrNsp8R7BAjiBuI2km55vdpmPkB3cVFrYiVXhoi82bsejgvaXtS5v6Ls+Zitn65tNVQzuBLY3hxAtcgcrrnTlkmpMm42i6+HnSi7Nq3EzG320seIyxviY9rWMI7dsxJNzo0kW3cV1xNZVWmiBsXZ08DTlGo023fhp62Iuo5c3M/sdtPJhspcG543gCRm4m17OaeDhc9xBPcR2oVnSdyr2ps2GOpqLdpLR/R+DJpLt7hTnda6ie6XfmMMJdcDQ5y6/mpbxVFu+Xj5I8/HYW0ox3arJR5ZpW6WIrtRtcK2phqGwBghIsCbl4Dw4B1hoNN2u8qNVr55KVtC62dsp4XD1KTnfP6cLcPxaEpb0l0k7ctVRuPcBHK3+PKpP7yEl7cfqUz/TeKpSvh6y9Yv0uI9vMLgOenonNfbQthhj8swNx6IsTRjxjH0QlsPaVX2a1a68ZSfpYhO1m00uJSB7wGMbcMYDcNvvJPFxsNdN25Q61Z1Xdnodm7NpYGDjDi3q+f2Rg1yLK5eYPhklXMyniHaebdzRxce4C58ltCDnJRRHxWKhhqUqs9F6+HxOhcIw5lJCynj91jQBzJ4uPeTcnvKu4QUIqKPl2JxE8RVlVnq3+L4aF4tzgEAQBAYfafCTVQkMyiVoJjLt1/ldbWx3eh4LlVhnjw1JuAxSw9VOXuvW3z80aSq8XqWOdG60bmkhwy6gjeDmuqpzknY+g08LQlFSjxT04/axZSYjM7fK/wAjl/lstM0uZ3jQpLSK/PMt3uLveJPiSfzWp1VloebJYzmJFsFi0VHWCaYkMyPFwC7U2toNV3w81Cd2Ve2MNUxOGdOmru6fI+e2+Kx1lbJPDcsIYASLE5WgE2Oo1WK81ObaN9k4aphsLGlU14+rMCuNixuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC4SwuEsLhLC5UBLC5uro62V9hi66Ufr5BrzjZvDPHie+w4XVrhqG7V3qzwO29qfu6m7pv2I+r5/b+yYqUUQQBAEAQBAQbpD2N9raamnb+vaO00f3rRuH1gbjxGnK0TE4fP7Udfmeg2Ltb9u9zVfsPT/wAX9n29eZp8i2h0PEcRZVlj297lEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFwguEFzZ/RvsXly1tS3XQwxkbuUjhz5Dhv32tPw2H/nL4Hk9t7XvfD0Xw/k/ovr05my1PPKBAEAQBAEAQBAQXbvYYVV6mmAbPvc3QNl/oH9+48eYiV8Pn9qOvzL/ZO2Xh7Uq3GHY+7/AF8uzkailicxxa5pa4EhzSCHAjeCDqCq5q2p7OM1JJxd0zysGbhBcILhBcILhBcILhBcILhBcILhBcILhBcILhBcWQXNnbB7BWy1VY3XQxwkbuTpBz5N4cddBPw+G/lPoeV2ttu96OHfnL6L79OHF7LU48sEAQBAEAQBAEAQBARra3Y6HEBm/ZzAdmQDf3PHxD8RwPPhVoRqce0s9n7Uq4R21jy+3L5GnscwKehf1c7LX91w1jf9LuPgbHuVdOnKDtI9nhcbRxMc1N+a7V5r8RjVoSbhBcILhBcILhBcILhBcILhBcILhBcILhBcvMLwyaqkEUEbnu7twHNx3NHeVtGDk7I418TToQz1HZfmnM23sdsJFRWmmIln4H4Iz+4DvP7x15W1VhRw6hxfFnj9o7YqYm8IezD1fn9vmTFSSmCAIAgCAIAgCAIAgCAID4VtHHOwxysa9h3tcAQfXj3rEoqSszenVnTkpwdmu1GudoujK130T/8AlPP4MkP5O+8odTCdsD0mE2//ABxC+K+q+3Q19iFBLTv6ueN8buTha/e07nDvFwocouLsz0FKvTqxzU2mvD84fEt1g6XCC4QXCC4QXCC4QXCC4QXCC59KanfK8Rxsc953NaC53jYcO9ZSbdkazqRhHNN2XNk72e6NJZLPrHdU3/DaQZD9TtWt8rnwUqnhW/eKHF7ehD2aCu+b06av0+JsvCsLhpGdVBG2NvIbyebidXHvOqmxhGKsjzVfEVa8s9SV3+aci8WxxCAIAgCAIAgCAIAgCAIAgCAID4VtHHOwxyxskYd7XNDh6FYcVJWZvTqzpyzQbT8CHYt0ZUst3QPfA7l+0j+645vIOAUeWFi9OBcUNu14cKiUvR9V9iI4j0cV0VzGI5hwyuyu82vsB94qPLDTWnEtqW28NP3rx81ddV9iP1mCVUJtJTzt7zG4t+8Bl/FcXTktUWFPFUKnuTT+K+Wpjs45j1WpIsz0hgIDyXgbyPVDNmXtJhVRNbqoJn33FsbiPvAWWyhJ6I4VMRSp+/NLzaJBh/R5Xy+8xkQ5yPF7cwGZj5Gy6xw034ECrtnCw0bl5L72+pK8K6L4GWNRK+U/K39WzzsS4+Tgu8cJFe87lVX29VlwpRUfPi/t6E0w3DIaZuSCJkbeIaALnm47ye8qTGEY8EimrV6laWapJt+JdrY5BAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEBGtqv6LjULDBGoMV3qvkevoaHyw73liJtW0Nr7H/B4D8lPpHlcfqyZKQVAQBAEAQBAEAQBAEAQBAEB//9k=</t>
   </si>
   <si>
-    <t>https://off1.dunyapurkaraja.com:1686/hls/willowusa.m3u8?md5=1RVIaQIwHsx4YUBN1YJmSw&amp;expires=1742190994</t>
+    <t>https://off1.dunyapurkaraja.com:1686/hls/willowusa.m3u8?md5=DrujHrZ7SR-kyVZ9dTBnhg&amp;expires=1742192590</t>
+  </si>
+  <si>
+    <t>https://off1.dunyapurkaraja.com:1686/hls/skyscric.m3u8?md5=jgLvWH4aBWP6qAcnDQAclw&amp;expires=1742192627</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -469,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
